--- a/SceneServer/tools/Xlsx/kx_exp.xlsx
+++ b/SceneServer/tools/Xlsx/kx_exp.xlsx
@@ -1,30 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C++\KxServer\x64\Build\tools\Xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67121DC-EF35-4815-8A45-6E4991D912A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="14235" xr2:uid="{1FC14999-40B6-404A-BBAC-D69775A48DEC}"/>
+    <workbookView windowHeight="16425"/>
   </bookViews>
   <sheets>
     <sheet name="kx_skill" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_skill!$A$1:$B$1004</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -32,55 +21,378 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>序号(等级)</t>
   </si>
   <si>
     <t>升级所需经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号(等级)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -88,9 +400,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -102,17 +656,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -161,7 +759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -194,26 +792,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -246,23 +827,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,77 +968,72 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAEF232-3127-4514-B018-D0C3253D71D7}">
-  <dimension ref="A1:B304"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A966" workbookViewId="0">
+      <selection activeCell="C1000" sqref="C1000"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="153.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="153.75" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="6.375" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="82.625" customWidth="1"/>
-    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="39.5" customWidth="1"/>
+    <col min="17" max="17" width="21.25" customWidth="1"/>
+    <col min="18" max="18" width="12.75" customWidth="1"/>
+    <col min="19" max="22" width="255.625" customWidth="1"/>
+    <col min="23" max="23" width="51.375" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
+    <col min="26" max="26" width="13" customWidth="1"/>
+    <col min="27" max="27" width="9.375" customWidth="1"/>
+    <col min="28" max="28" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -482,7 +1041,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -490,7 +1049,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -498,7 +1057,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -506,7 +1065,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -514,7 +1073,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -522,7 +1081,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -530,7 +1089,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -538,7 +1097,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -546,7 +1105,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -554,7 +1113,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -562,7 +1121,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -570,7 +1129,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -578,7 +1137,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -586,7 +1145,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -594,7 +1153,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -602,7 +1161,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -610,7 +1169,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" customHeight="1" spans="1:2">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -618,7 +1177,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" customHeight="1" spans="1:2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -626,7 +1185,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" customHeight="1" spans="1:2">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -634,7 +1193,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" customHeight="1" spans="1:2">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -642,7 +1201,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -650,7 +1209,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -658,7 +1217,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -666,7 +1225,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -674,7 +1233,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -682,7 +1241,7 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" customHeight="1" spans="1:2">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -690,7 +1249,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -698,7 +1257,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" customHeight="1" spans="1:2">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -706,7 +1265,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -714,7 +1273,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -722,7 +1281,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" customHeight="1" spans="1:2">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -730,7 +1289,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -738,7 +1297,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -746,7 +1305,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -754,7 +1313,7 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -762,7 +1321,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" customHeight="1" spans="1:2">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -770,7 +1329,7 @@
         <v>5370</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -778,7 +1337,7 @@
         <v>5630</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -786,7 +1345,7 @@
         <v>5910</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" customHeight="1" spans="1:2">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -794,7 +1353,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" customHeight="1" spans="1:2">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -802,7 +1361,7 @@
         <v>6510</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" customHeight="1" spans="1:2">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -810,7 +1369,7 @@
         <v>6830</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" customHeight="1" spans="1:2">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -818,7 +1377,7 @@
         <v>7170</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" customHeight="1" spans="1:2">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -826,7 +1385,7 @@
         <v>7520</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" customHeight="1" spans="1:2">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -834,7 +1393,7 @@
         <v>7890</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" customHeight="1" spans="1:2">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -842,7 +1401,7 @@
         <v>8280</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" customHeight="1" spans="1:2">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -850,7 +1409,7 @@
         <v>8690</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" customHeight="1" spans="1:2">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -858,7 +1417,7 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" customHeight="1" spans="1:2">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -866,7 +1425,7 @@
         <v>9570</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" customHeight="1" spans="1:2">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -874,7 +1433,7 @@
         <v>10040</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" customHeight="1" spans="1:2">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -882,7 +1441,7 @@
         <v>10540</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" customHeight="1" spans="1:2">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -890,7 +1449,7 @@
         <v>11060</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" customHeight="1" spans="1:2">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -898,7 +1457,7 @@
         <v>11610</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" customHeight="1" spans="1:2">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -906,7 +1465,7 @@
         <v>12190</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" customHeight="1" spans="1:2">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -914,7 +1473,7 @@
         <v>12790</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" customHeight="1" spans="1:2">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -922,7 +1481,7 @@
         <v>13420</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" customHeight="1" spans="1:2">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -930,7 +1489,7 @@
         <v>14090</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" customHeight="1" spans="1:2">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -938,7 +1497,7 @@
         <v>14790</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" customHeight="1" spans="1:2">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -946,7 +1505,7 @@
         <v>15520</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" customHeight="1" spans="1:2">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -954,7 +1513,7 @@
         <v>16290</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" customHeight="1" spans="1:2">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -962,7 +1521,7 @@
         <v>17100</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" customHeight="1" spans="1:2">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -970,7 +1529,7 @@
         <v>17950</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" customHeight="1" spans="1:2">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -978,7 +1537,7 @@
         <v>18840</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" customHeight="1" spans="1:2">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -986,7 +1545,7 @@
         <v>19780</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" customHeight="1" spans="1:2">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -994,7 +1553,7 @@
         <v>20760</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" customHeight="1" spans="1:2">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -1002,7 +1561,7 @@
         <v>21790</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" customHeight="1" spans="1:2">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -1010,7 +1569,7 @@
         <v>22870</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" customHeight="1" spans="1:2">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -1018,7 +1577,7 @@
         <v>24010</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" customHeight="1" spans="1:2">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -1026,7 +1585,7 @@
         <v>25210</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" customHeight="1" spans="1:2">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -1034,7 +1593,7 @@
         <v>26470</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" customHeight="1" spans="1:2">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -1042,7 +1601,7 @@
         <v>27790</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" customHeight="1" spans="1:2">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -1050,7 +1609,7 @@
         <v>29170</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" customHeight="1" spans="1:2">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -1058,7 +1617,7 @@
         <v>30620</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" customHeight="1" spans="1:2">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -1066,7 +1625,7 @@
         <v>32150</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" customHeight="1" spans="1:2">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -1074,7 +1633,7 @@
         <v>33750</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" customHeight="1" spans="1:2">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -1082,7 +1641,7 @@
         <v>35430</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" customHeight="1" spans="1:2">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -1090,7 +1649,7 @@
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" customHeight="1" spans="1:2">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -1098,7 +1657,7 @@
         <v>39060</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" customHeight="1" spans="1:2">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -1106,7 +1665,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" customHeight="1" spans="1:2">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -1114,7 +1673,7 @@
         <v>43060</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" customHeight="1" spans="1:2">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -1122,7 +1681,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" customHeight="1" spans="1:2">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -1130,7 +1689,7 @@
         <v>47470</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" customHeight="1" spans="1:2">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -1138,7 +1697,7 @@
         <v>49840</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" customHeight="1" spans="1:2">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -1146,7 +1705,7 @@
         <v>52330</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" customHeight="1" spans="1:2">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -1154,7 +1713,7 @@
         <v>54940</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" customHeight="1" spans="1:2">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -1162,7 +1721,7 @@
         <v>57680</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" customHeight="1" spans="1:2">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -1170,7 +1729,7 @@
         <v>60560</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" customHeight="1" spans="1:2">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -1178,7 +1737,7 @@
         <v>63580</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" customHeight="1" spans="1:2">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -1186,7 +1745,7 @@
         <v>66750</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" customHeight="1" spans="1:2">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -1194,7 +1753,7 @@
         <v>70080</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" customHeight="1" spans="1:2">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -1202,7 +1761,7 @@
         <v>73580</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" customHeight="1" spans="1:2">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -1210,7 +1769,7 @@
         <v>77250</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" customHeight="1" spans="1:2">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -1218,7 +1777,7 @@
         <v>81110</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" customHeight="1" spans="1:2">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -1226,7 +1785,7 @@
         <v>85160</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" customHeight="1" spans="1:2">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -1234,7 +1793,7 @@
         <v>89410</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" customHeight="1" spans="1:2">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -1242,7 +1801,7 @@
         <v>93880</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" customHeight="1" spans="1:2">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -1250,7 +1809,7 @@
         <v>98570</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" customHeight="1" spans="1:2">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -1258,7 +1817,7 @@
         <v>103490</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" customHeight="1" spans="1:2">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -1266,7 +1825,7 @@
         <v>108660</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" customHeight="1" spans="1:2">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -1274,7 +1833,7 @@
         <v>114090</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" customHeight="1" spans="1:2">
       <c r="A105" s="1">
         <v>101</v>
       </c>
@@ -1282,7 +1841,7 @@
         <v>119790</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" customHeight="1" spans="1:2">
       <c r="A106" s="1">
         <v>102</v>
       </c>
@@ -1290,7 +1849,7 @@
         <v>125770</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" customHeight="1" spans="1:2">
       <c r="A107" s="1">
         <v>103</v>
       </c>
@@ -1298,7 +1857,7 @@
         <v>132050</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" customHeight="1" spans="1:2">
       <c r="A108" s="1">
         <v>104</v>
       </c>
@@ -1306,7 +1865,7 @@
         <v>138650</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" customHeight="1" spans="1:2">
       <c r="A109" s="1">
         <v>105</v>
       </c>
@@ -1314,7 +1873,7 @@
         <v>145580</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" customHeight="1" spans="1:2">
       <c r="A110" s="1">
         <v>106</v>
       </c>
@@ -1322,7 +1881,7 @@
         <v>152850</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" customHeight="1" spans="1:2">
       <c r="A111" s="1">
         <v>107</v>
       </c>
@@ -1330,7 +1889,7 @@
         <v>160490</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" customHeight="1" spans="1:2">
       <c r="A112" s="1">
         <v>108</v>
       </c>
@@ -1338,7 +1897,7 @@
         <v>168510</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" customHeight="1" spans="1:2">
       <c r="A113" s="1">
         <v>109</v>
       </c>
@@ -1346,7 +1905,7 @@
         <v>176930</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" ht="14.25" spans="1:2">
       <c r="A114" s="1">
         <v>110</v>
       </c>
@@ -1354,7 +1913,7 @@
         <v>185770</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" customHeight="1" spans="1:2">
       <c r="A115" s="1">
         <v>111</v>
       </c>
@@ -1362,7 +1921,7 @@
         <v>195050</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" customHeight="1" spans="1:2">
       <c r="A116" s="1">
         <v>112</v>
       </c>
@@ -1370,7 +1929,7 @@
         <v>204800</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" customHeight="1" spans="1:2">
       <c r="A117" s="1">
         <v>113</v>
       </c>
@@ -1378,7 +1937,7 @@
         <v>215040</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" customHeight="1" spans="1:2">
       <c r="A118" s="1">
         <v>114</v>
       </c>
@@ -1386,7 +1945,7 @@
         <v>225790</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" customHeight="1" spans="1:2">
       <c r="A119" s="1">
         <v>115</v>
       </c>
@@ -1394,7 +1953,7 @@
         <v>237070</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" customHeight="1" spans="1:2">
       <c r="A120" s="1">
         <v>116</v>
       </c>
@@ -1402,7 +1961,7 @@
         <v>248920</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" customHeight="1" spans="1:2">
       <c r="A121" s="1">
         <v>117</v>
       </c>
@@ -1410,7 +1969,7 @@
         <v>261360</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" customHeight="1" spans="1:2">
       <c r="A122" s="1">
         <v>118</v>
       </c>
@@ -1418,7 +1977,7 @@
         <v>274420</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" customHeight="1" spans="1:2">
       <c r="A123" s="1">
         <v>119</v>
       </c>
@@ -1426,7 +1985,7 @@
         <v>288140</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" customHeight="1" spans="1:2">
       <c r="A124" s="1">
         <v>120</v>
       </c>
@@ -1434,7 +1993,7 @@
         <v>302540</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" customHeight="1" spans="1:2">
       <c r="A125" s="1">
         <v>121</v>
       </c>
@@ -1442,7 +2001,7 @@
         <v>317660</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" customHeight="1" spans="1:2">
       <c r="A126" s="1">
         <v>122</v>
       </c>
@@ -1450,7 +2009,7 @@
         <v>333540</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" customHeight="1" spans="1:2">
       <c r="A127" s="1">
         <v>123</v>
       </c>
@@ -1458,7 +2017,7 @@
         <v>350210</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" customHeight="1" spans="1:2">
       <c r="A128" s="1">
         <v>124</v>
       </c>
@@ -1466,7 +2025,7 @@
         <v>367720</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" customHeight="1" spans="1:2">
       <c r="A129" s="1">
         <v>125</v>
       </c>
@@ -1474,7 +2033,7 @@
         <v>386100</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" customHeight="1" spans="1:2">
       <c r="A130" s="1">
         <v>126</v>
       </c>
@@ -1482,7 +2041,7 @@
         <v>405400</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" customHeight="1" spans="1:2">
       <c r="A131" s="1">
         <v>127</v>
       </c>
@@ -1490,7 +2049,7 @@
         <v>425670</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" customHeight="1" spans="1:2">
       <c r="A132" s="1">
         <v>128</v>
       </c>
@@ -1498,7 +2057,7 @@
         <v>446950</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" customHeight="1" spans="1:2">
       <c r="A133" s="1">
         <v>129</v>
       </c>
@@ -1506,7 +2065,7 @@
         <v>469290</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" customHeight="1" spans="1:2">
       <c r="A134" s="1">
         <v>130</v>
       </c>
@@ -1514,7 +2073,7 @@
         <v>492750</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" customHeight="1" spans="1:2">
       <c r="A135" s="1">
         <v>131</v>
       </c>
@@ -1522,7 +2081,7 @@
         <v>517380</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" customHeight="1" spans="1:2">
       <c r="A136" s="1">
         <v>132</v>
       </c>
@@ -1530,7 +2089,7 @@
         <v>543240</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" customHeight="1" spans="1:2">
       <c r="A137" s="1">
         <v>133</v>
       </c>
@@ -1538,7 +2097,7 @@
         <v>570400</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" customHeight="1" spans="1:2">
       <c r="A138" s="1">
         <v>134</v>
       </c>
@@ -1546,7 +2105,7 @@
         <v>598920</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" customHeight="1" spans="1:2">
       <c r="A139" s="1">
         <v>135</v>
       </c>
@@ -1554,7 +2113,7 @@
         <v>628860</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" customHeight="1" spans="1:2">
       <c r="A140" s="1">
         <v>136</v>
       </c>
@@ -1562,7 +2121,7 @@
         <v>660300</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" customHeight="1" spans="1:2">
       <c r="A141" s="1">
         <v>137</v>
       </c>
@@ -1570,7 +2129,7 @@
         <v>693310</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" customHeight="1" spans="1:2">
       <c r="A142" s="1">
         <v>138</v>
       </c>
@@ -1578,7 +2137,7 @@
         <v>727970</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" customHeight="1" spans="1:2">
       <c r="A143" s="1">
         <v>139</v>
       </c>
@@ -1586,7 +2145,7 @@
         <v>764360</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" customHeight="1" spans="1:2">
       <c r="A144" s="1">
         <v>140</v>
       </c>
@@ -1594,7 +2153,7 @@
         <v>802570</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" customHeight="1" spans="1:2">
       <c r="A145" s="1">
         <v>141</v>
       </c>
@@ -1602,7 +2161,7 @@
         <v>842690</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" customHeight="1" spans="1:2">
       <c r="A146" s="1">
         <v>142</v>
       </c>
@@ -1610,7 +2169,7 @@
         <v>884820</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" customHeight="1" spans="1:2">
       <c r="A147" s="1">
         <v>143</v>
       </c>
@@ -1618,7 +2177,7 @@
         <v>929060</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" customHeight="1" spans="1:2">
       <c r="A148" s="1">
         <v>144</v>
       </c>
@@ -1626,7 +2185,7 @@
         <v>975510</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" customHeight="1" spans="1:2">
       <c r="A149" s="1">
         <v>145</v>
       </c>
@@ -1634,7 +2193,7 @@
         <v>1024280</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" customHeight="1" spans="1:2">
       <c r="A150" s="1">
         <v>146</v>
       </c>
@@ -1642,7 +2201,7 @@
         <v>1075490</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" customHeight="1" spans="1:2">
       <c r="A151" s="1">
         <v>147</v>
       </c>
@@ -1650,7 +2209,7 @@
         <v>1129260</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" customHeight="1" spans="1:2">
       <c r="A152" s="1">
         <v>148</v>
       </c>
@@ -1658,7 +2217,7 @@
         <v>1185720</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" customHeight="1" spans="1:2">
       <c r="A153" s="1">
         <v>149</v>
       </c>
@@ -1666,7 +2225,7 @@
         <v>1245000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" customHeight="1" spans="1:2">
       <c r="A154" s="1">
         <v>150</v>
       </c>
@@ -1674,7 +2233,7 @@
         <v>1307250</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" customHeight="1" spans="1:2">
       <c r="A155" s="1">
         <v>151</v>
       </c>
@@ -1682,7 +2241,7 @@
         <v>1372610</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" customHeight="1" spans="1:2">
       <c r="A156" s="1">
         <v>152</v>
       </c>
@@ -1690,7 +2249,7 @@
         <v>1441240</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" customHeight="1" spans="1:2">
       <c r="A157" s="1">
         <v>153</v>
       </c>
@@ -1698,7 +2257,7 @@
         <v>1513300</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" customHeight="1" spans="1:2">
       <c r="A158" s="1">
         <v>154</v>
       </c>
@@ -1706,7 +2265,7 @@
         <v>1588960</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" customHeight="1" spans="1:2">
       <c r="A159" s="1">
         <v>155</v>
       </c>
@@ -1714,7 +2273,7 @@
         <v>1668400</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" customHeight="1" spans="1:2">
       <c r="A160" s="1">
         <v>156</v>
       </c>
@@ -1722,7 +2281,7 @@
         <v>1751820</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" customHeight="1" spans="1:2">
       <c r="A161" s="1">
         <v>157</v>
       </c>
@@ -1730,7 +2289,7 @@
         <v>1839410</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" customHeight="1" spans="1:2">
       <c r="A162" s="1">
         <v>158</v>
       </c>
@@ -1738,7 +2297,7 @@
         <v>1931380</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" customHeight="1" spans="1:2">
       <c r="A163" s="1">
         <v>159</v>
       </c>
@@ -1746,7 +2305,7 @@
         <v>2027940</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" customHeight="1" spans="1:2">
       <c r="A164" s="1">
         <v>160</v>
       </c>
@@ -1754,7 +2313,7 @@
         <v>2129330</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" customHeight="1" spans="1:2">
       <c r="A165" s="1">
         <v>161</v>
       </c>
@@ -1762,7 +2321,7 @@
         <v>2235790</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" customHeight="1" spans="1:2">
       <c r="A166" s="1">
         <v>162</v>
       </c>
@@ -1770,7 +2329,7 @@
         <v>2347570</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" customHeight="1" spans="1:2">
       <c r="A167" s="1">
         <v>163</v>
       </c>
@@ -1778,7 +2337,7 @@
         <v>2464940</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" customHeight="1" spans="1:2">
       <c r="A168" s="1">
         <v>164</v>
       </c>
@@ -1786,7 +2345,7 @@
         <v>2588180</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" customHeight="1" spans="1:2">
       <c r="A169" s="1">
         <v>165</v>
       </c>
@@ -1794,7 +2353,7 @@
         <v>2717580</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" customHeight="1" spans="1:2">
       <c r="A170" s="1">
         <v>166</v>
       </c>
@@ -1802,7 +2361,7 @@
         <v>2853450</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" customHeight="1" spans="1:2">
       <c r="A171" s="1">
         <v>167</v>
       </c>
@@ -1810,7 +2369,7 @@
         <v>2996120</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" customHeight="1" spans="1:2">
       <c r="A172" s="1">
         <v>168</v>
       </c>
@@ -1818,7 +2377,7 @@
         <v>3145920</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" customHeight="1" spans="1:2">
       <c r="A173" s="1">
         <v>169</v>
       </c>
@@ -1826,7 +2385,7 @@
         <v>3303210</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" customHeight="1" spans="1:2">
       <c r="A174" s="1">
         <v>170</v>
       </c>
@@ -1834,7 +2393,7 @@
         <v>3468370</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" customHeight="1" spans="1:2">
       <c r="A175" s="1">
         <v>171</v>
       </c>
@@ -1842,7 +2401,7 @@
         <v>3641780</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" customHeight="1" spans="1:2">
       <c r="A176" s="1">
         <v>172</v>
       </c>
@@ -1850,7 +2409,7 @@
         <v>3823860</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" customHeight="1" spans="1:2">
       <c r="A177" s="1">
         <v>173</v>
       </c>
@@ -1858,7 +2417,7 @@
         <v>4015050</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" customHeight="1" spans="1:2">
       <c r="A178" s="1">
         <v>174</v>
       </c>
@@ -1866,7 +2425,7 @@
         <v>4215800</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" customHeight="1" spans="1:2">
       <c r="A179" s="1">
         <v>175</v>
       </c>
@@ -1874,7 +2433,7 @@
         <v>4426590</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" customHeight="1" spans="1:2">
       <c r="A180" s="1">
         <v>176</v>
       </c>
@@ -1882,7 +2441,7 @@
         <v>4647910</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" customHeight="1" spans="1:2">
       <c r="A181" s="1">
         <v>177</v>
       </c>
@@ -1890,7 +2449,7 @@
         <v>4880300</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" customHeight="1" spans="1:2">
       <c r="A182" s="1">
         <v>178</v>
       </c>
@@ -1898,7 +2457,7 @@
         <v>5124310</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" customHeight="1" spans="1:2">
       <c r="A183" s="1">
         <v>179</v>
       </c>
@@ -1906,7 +2465,7 @@
         <v>5380520</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" customHeight="1" spans="1:2">
       <c r="A184" s="1">
         <v>180</v>
       </c>
@@ -1914,7 +2473,7 @@
         <v>5649540</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" customHeight="1" spans="1:2">
       <c r="A185" s="1">
         <v>181</v>
       </c>
@@ -1922,7 +2481,7 @@
         <v>5932010</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" customHeight="1" spans="1:2">
       <c r="A186" s="1">
         <v>182</v>
       </c>
@@ -1930,7 +2489,7 @@
         <v>6228610</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" customHeight="1" spans="1:2">
       <c r="A187" s="1">
         <v>183</v>
       </c>
@@ -1938,7 +2497,7 @@
         <v>6540040</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" customHeight="1" spans="1:2">
       <c r="A188" s="1">
         <v>184</v>
       </c>
@@ -1946,7 +2505,7 @@
         <v>6867040</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" customHeight="1" spans="1:2">
       <c r="A189" s="1">
         <v>185</v>
       </c>
@@ -1954,7 +2513,7 @@
         <v>7210390</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" customHeight="1" spans="1:2">
       <c r="A190" s="1">
         <v>186</v>
       </c>
@@ -1962,7 +2521,7 @@
         <v>7570900</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" customHeight="1" spans="1:2">
       <c r="A191" s="1">
         <v>187</v>
       </c>
@@ -1970,7 +2529,7 @@
         <v>7949440</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" customHeight="1" spans="1:2">
       <c r="A192" s="1">
         <v>188</v>
       </c>
@@ -1978,7 +2537,7 @@
         <v>8346910</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" customHeight="1" spans="1:2">
       <c r="A193" s="1">
         <v>189</v>
       </c>
@@ -1986,7 +2545,7 @@
         <v>8764250</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" customHeight="1" spans="1:2">
       <c r="A194" s="1">
         <v>190</v>
       </c>
@@ -1994,7 +2553,7 @@
         <v>9202460</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" customHeight="1" spans="1:2">
       <c r="A195" s="1">
         <v>191</v>
       </c>
@@ -2002,7 +2561,7 @@
         <v>9662580</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" customHeight="1" spans="1:2">
       <c r="A196" s="1">
         <v>192</v>
       </c>
@@ -2010,7 +2569,7 @@
         <v>10145700</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" customHeight="1" spans="1:2">
       <c r="A197" s="1">
         <v>193</v>
       </c>
@@ -2018,7 +2577,7 @@
         <v>10652980</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" customHeight="1" spans="1:2">
       <c r="A198" s="1">
         <v>194</v>
       </c>
@@ -2026,7 +2585,7 @@
         <v>11185620</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" customHeight="1" spans="1:2">
       <c r="A199" s="1">
         <v>195</v>
       </c>
@@ -2034,7 +2593,7 @@
         <v>11744900</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" customHeight="1" spans="1:2">
       <c r="A200" s="1">
         <v>196</v>
       </c>
@@ -2042,7 +2601,7 @@
         <v>12332140</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" customHeight="1" spans="1:2">
       <c r="A201" s="1">
         <v>197</v>
       </c>
@@ -2050,7 +2609,7 @@
         <v>12948740</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" customHeight="1" spans="1:2">
       <c r="A202" s="1">
         <v>198</v>
       </c>
@@ -2058,7 +2617,7 @@
         <v>13596170</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" customHeight="1" spans="1:2">
       <c r="A203" s="1">
         <v>199</v>
       </c>
@@ -2066,7 +2625,7 @@
         <v>14275970</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" customHeight="1" spans="1:2">
       <c r="A204" s="1">
         <v>200</v>
       </c>
@@ -2074,7 +2633,7 @@
         <v>14989760</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" customHeight="1" spans="1:2">
       <c r="A205" s="1">
         <v>201</v>
       </c>
@@ -2082,7 +2641,7 @@
         <v>15739240</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" customHeight="1" spans="1:2">
       <c r="A206" s="1">
         <v>202</v>
       </c>
@@ -2090,7 +2649,7 @@
         <v>16526200</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" customHeight="1" spans="1:2">
       <c r="A207" s="1">
         <v>203</v>
       </c>
@@ -2098,7 +2657,7 @@
         <v>17352510</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" customHeight="1" spans="1:2">
       <c r="A208" s="1">
         <v>204</v>
       </c>
@@ -2106,7 +2665,7 @@
         <v>18220130</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" customHeight="1" spans="1:2">
       <c r="A209" s="1">
         <v>205</v>
       </c>
@@ -2114,7 +2673,7 @@
         <v>19131130</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" customHeight="1" spans="1:2">
       <c r="A210" s="1">
         <v>206</v>
       </c>
@@ -2122,7 +2681,7 @@
         <v>20087680</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" customHeight="1" spans="1:2">
       <c r="A211" s="1">
         <v>207</v>
       </c>
@@ -2130,7 +2689,7 @@
         <v>21092060</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" customHeight="1" spans="1:2">
       <c r="A212" s="1">
         <v>208</v>
       </c>
@@ -2138,7 +2697,7 @@
         <v>22146660</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" customHeight="1" spans="1:2">
       <c r="A213" s="1">
         <v>209</v>
       </c>
@@ -2146,7 +2705,7 @@
         <v>23253990</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" customHeight="1" spans="1:2">
       <c r="A214" s="1">
         <v>210</v>
       </c>
@@ -2154,7 +2713,7 @@
         <v>24416680</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" customHeight="1" spans="1:2">
       <c r="A215" s="1">
         <v>211</v>
       </c>
@@ -2162,7 +2721,7 @@
         <v>25637510</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" customHeight="1" spans="1:2">
       <c r="A216" s="1">
         <v>212</v>
       </c>
@@ -2170,7 +2729,7 @@
         <v>26919380</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" customHeight="1" spans="1:2">
       <c r="A217" s="1">
         <v>213</v>
       </c>
@@ -2178,7 +2737,7 @@
         <v>28265340</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" customHeight="1" spans="1:2">
       <c r="A218" s="1">
         <v>214</v>
       </c>
@@ -2186,7 +2745,7 @@
         <v>29678600</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" customHeight="1" spans="1:2">
       <c r="A219" s="1">
         <v>215</v>
       </c>
@@ -2194,7 +2753,7 @@
         <v>31162530</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" customHeight="1" spans="1:2">
       <c r="A220" s="1">
         <v>216</v>
       </c>
@@ -2202,7 +2761,7 @@
         <v>32720650</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" customHeight="1" spans="1:2">
       <c r="A221" s="1">
         <v>217</v>
       </c>
@@ -2210,7 +2769,7 @@
         <v>34356680</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" customHeight="1" spans="1:2">
       <c r="A222" s="1">
         <v>218</v>
       </c>
@@ -2218,7 +2777,7 @@
         <v>36074510</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" customHeight="1" spans="1:2">
       <c r="A223" s="1">
         <v>219</v>
       </c>
@@ -2226,7 +2785,7 @@
         <v>37878230</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" customHeight="1" spans="1:2">
       <c r="A224" s="1">
         <v>220</v>
       </c>
@@ -2234,7 +2793,7 @@
         <v>39772140</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" customHeight="1" spans="1:2">
       <c r="A225" s="1">
         <v>221</v>
       </c>
@@ -2242,7 +2801,7 @@
         <v>41760740</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" customHeight="1" spans="1:2">
       <c r="A226" s="1">
         <v>222</v>
       </c>
@@ -2250,7 +2809,7 @@
         <v>43848770</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" customHeight="1" spans="1:2">
       <c r="A227" s="1">
         <v>223</v>
       </c>
@@ -2258,7 +2817,7 @@
         <v>46041200</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" customHeight="1" spans="1:2">
       <c r="A228" s="1">
         <v>224</v>
       </c>
@@ -2266,7 +2825,7 @@
         <v>48343260</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" customHeight="1" spans="1:2">
       <c r="A229" s="1">
         <v>225</v>
       </c>
@@ -2274,7 +2833,7 @@
         <v>50760420</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" customHeight="1" spans="1:2">
       <c r="A230" s="1">
         <v>226</v>
       </c>
@@ -2282,7 +2841,7 @@
         <v>53298440</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" customHeight="1" spans="1:2">
       <c r="A231" s="1">
         <v>227</v>
       </c>
@@ -2290,7 +2849,7 @@
         <v>55963360</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" customHeight="1" spans="1:2">
       <c r="A232" s="1">
         <v>228</v>
       </c>
@@ -2298,7 +2857,7 @@
         <v>58761520</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" customHeight="1" spans="1:2">
       <c r="A233" s="1">
         <v>229</v>
       </c>
@@ -2306,7 +2865,7 @@
         <v>61699590</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" customHeight="1" spans="1:2">
       <c r="A234" s="1">
         <v>230</v>
       </c>
@@ -2314,7 +2873,7 @@
         <v>64784560</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" customHeight="1" spans="1:2">
       <c r="A235" s="1">
         <v>231</v>
       </c>
@@ -2322,7 +2881,7 @@
         <v>68023780</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" customHeight="1" spans="1:2">
       <c r="A236" s="1">
         <v>232</v>
       </c>
@@ -2330,7 +2889,7 @@
         <v>71424960</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" customHeight="1" spans="1:2">
       <c r="A237" s="1">
         <v>233</v>
       </c>
@@ -2338,7 +2897,7 @@
         <v>74996200</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" customHeight="1" spans="1:2">
       <c r="A238" s="1">
         <v>234</v>
       </c>
@@ -2346,7 +2905,7 @@
         <v>78746010</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" customHeight="1" spans="1:2">
       <c r="A239" s="1">
         <v>235</v>
       </c>
@@ -2354,7 +2913,7 @@
         <v>82683310</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" customHeight="1" spans="1:2">
       <c r="A240" s="1">
         <v>236</v>
       </c>
@@ -2362,7 +2921,7 @@
         <v>86817470</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" customHeight="1" spans="1:2">
       <c r="A241" s="1">
         <v>237</v>
       </c>
@@ -2370,7 +2929,7 @@
         <v>91158340</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" customHeight="1" spans="1:2">
       <c r="A242" s="1">
         <v>238</v>
       </c>
@@ -2378,7 +2937,7 @@
         <v>95716250</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" customHeight="1" spans="1:2">
       <c r="A243" s="1">
         <v>239</v>
       </c>
@@ -2386,7 +2945,7 @@
         <v>100502060</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" customHeight="1" spans="1:2">
       <c r="A244" s="1">
         <v>240</v>
       </c>
@@ -2394,7 +2953,7 @@
         <v>105527160</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" customHeight="1" spans="1:2">
       <c r="A245" s="1">
         <v>241</v>
       </c>
@@ -2402,7 +2961,7 @@
         <v>110803510</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" customHeight="1" spans="1:2">
       <c r="A246" s="1">
         <v>242</v>
       </c>
@@ -2410,7 +2969,7 @@
         <v>116343680</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" customHeight="1" spans="1:2">
       <c r="A247" s="1">
         <v>243</v>
       </c>
@@ -2418,7 +2977,7 @@
         <v>122160860</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" customHeight="1" spans="1:2">
       <c r="A248" s="1">
         <v>244</v>
       </c>
@@ -2426,7 +2985,7 @@
         <v>128268900</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" customHeight="1" spans="1:2">
       <c r="A249" s="1">
         <v>245</v>
       </c>
@@ -2434,7 +2993,7 @@
         <v>134682340</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" customHeight="1" spans="1:2">
       <c r="A250" s="1">
         <v>246</v>
       </c>
@@ -2442,7 +3001,7 @@
         <v>141416450</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" customHeight="1" spans="1:2">
       <c r="A251" s="1">
         <v>247</v>
       </c>
@@ -2450,7 +3009,7 @@
         <v>148487270</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" customHeight="1" spans="1:2">
       <c r="A252" s="1">
         <v>248</v>
       </c>
@@ -2458,7 +3017,7 @@
         <v>155911630</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" customHeight="1" spans="1:2">
       <c r="A253" s="1">
         <v>249</v>
       </c>
@@ -2466,7 +3025,7 @@
         <v>163707210</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" customHeight="1" spans="1:2">
       <c r="A254" s="1">
         <v>250</v>
       </c>
@@ -2474,7 +3033,7 @@
         <v>171892570</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" customHeight="1" spans="1:2">
       <c r="A255" s="1">
         <v>251</v>
       </c>
@@ -2482,7 +3041,7 @@
         <v>180487190</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" customHeight="1" spans="1:2">
       <c r="A256" s="1">
         <v>252</v>
       </c>
@@ -2490,7 +3049,7 @@
         <v>189511540</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" customHeight="1" spans="1:2">
       <c r="A257" s="1">
         <v>253</v>
       </c>
@@ -2498,7 +3057,7 @@
         <v>198987110</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" customHeight="1" spans="1:2">
       <c r="A258" s="1">
         <v>254</v>
       </c>
@@ -2506,7 +3065,7 @@
         <v>208936460</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" customHeight="1" spans="1:2">
       <c r="A259" s="1">
         <v>255</v>
       </c>
@@ -2514,7 +3073,7 @@
         <v>219383280</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" customHeight="1" spans="1:2">
       <c r="A260" s="1">
         <v>256</v>
       </c>
@@ -2522,7 +3081,7 @@
         <v>230352440</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" customHeight="1" spans="1:2">
       <c r="A261" s="1">
         <v>257</v>
       </c>
@@ -2530,7 +3089,7 @@
         <v>241870060</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" customHeight="1" spans="1:2">
       <c r="A262" s="1">
         <v>258</v>
       </c>
@@ -2538,7 +3097,7 @@
         <v>253963560</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" customHeight="1" spans="1:2">
       <c r="A263" s="1">
         <v>259</v>
       </c>
@@ -2546,7 +3105,7 @@
         <v>266661730</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" customHeight="1" spans="1:2">
       <c r="A264" s="1">
         <v>260</v>
       </c>
@@ -2554,7 +3113,7 @@
         <v>279994810</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" customHeight="1" spans="1:2">
       <c r="A265" s="1">
         <v>261</v>
       </c>
@@ -2562,7 +3121,7 @@
         <v>293994550</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" customHeight="1" spans="1:2">
       <c r="A266" s="1">
         <v>262</v>
       </c>
@@ -2570,7 +3129,7 @@
         <v>308694270</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" customHeight="1" spans="1:2">
       <c r="A267" s="1">
         <v>263</v>
       </c>
@@ -2578,7 +3137,7 @@
         <v>324128980</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" customHeight="1" spans="1:2">
       <c r="A268" s="1">
         <v>264</v>
       </c>
@@ -2586,7 +3145,7 @@
         <v>340335420</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" customHeight="1" spans="1:2">
       <c r="A269" s="1">
         <v>265</v>
       </c>
@@ -2594,7 +3153,7 @@
         <v>357352190</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" customHeight="1" spans="1:2">
       <c r="A270" s="1">
         <v>266</v>
       </c>
@@ -2602,7 +3161,7 @@
         <v>375219790</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" customHeight="1" spans="1:2">
       <c r="A271" s="1">
         <v>267</v>
       </c>
@@ -2610,7 +3169,7 @@
         <v>393980770</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" customHeight="1" spans="1:2">
       <c r="A272" s="1">
         <v>268</v>
       </c>
@@ -2618,7 +3177,7 @@
         <v>413679800</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" customHeight="1" spans="1:2">
       <c r="A273" s="1">
         <v>269</v>
       </c>
@@ -2626,7 +3185,7 @@
         <v>434363790</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" customHeight="1" spans="1:2">
       <c r="A274" s="1">
         <v>270</v>
       </c>
@@ -2634,7 +3193,7 @@
         <v>456081970</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" customHeight="1" spans="1:2">
       <c r="A275" s="1">
         <v>271</v>
       </c>
@@ -2642,7 +3201,7 @@
         <v>478886060</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" customHeight="1" spans="1:2">
       <c r="A276" s="1">
         <v>272</v>
       </c>
@@ -2650,7 +3209,7 @@
         <v>502830360</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" customHeight="1" spans="1:2">
       <c r="A277" s="1">
         <v>273</v>
       </c>
@@ -2658,7 +3217,7 @@
         <v>527971870</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" customHeight="1" spans="1:2">
       <c r="A278" s="1">
         <v>274</v>
       </c>
@@ -2666,7 +3225,7 @@
         <v>554370460</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" customHeight="1" spans="1:2">
       <c r="A279" s="1">
         <v>275</v>
       </c>
@@ -2674,7 +3233,7 @@
         <v>582088980</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" customHeight="1" spans="1:2">
       <c r="A280" s="1">
         <v>276</v>
       </c>
@@ -2682,7 +3241,7 @@
         <v>611193420</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" customHeight="1" spans="1:2">
       <c r="A281" s="1">
         <v>277</v>
       </c>
@@ -2690,7 +3249,7 @@
         <v>641753090</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" customHeight="1" spans="1:2">
       <c r="A282" s="1">
         <v>278</v>
       </c>
@@ -2698,7 +3257,7 @@
         <v>673840740</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" customHeight="1" spans="1:2">
       <c r="A283" s="1">
         <v>279</v>
       </c>
@@ -2706,7 +3265,7 @@
         <v>707532770</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" customHeight="1" spans="1:2">
       <c r="A284" s="1">
         <v>280</v>
       </c>
@@ -2714,7 +3273,7 @@
         <v>742909400</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" customHeight="1" spans="1:2">
       <c r="A285" s="1">
         <v>281</v>
       </c>
@@ -2722,7 +3281,7 @@
         <v>780054870</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" customHeight="1" spans="1:2">
       <c r="A286" s="1">
         <v>282</v>
       </c>
@@ -2730,7 +3289,7 @@
         <v>819057610</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" customHeight="1" spans="1:2">
       <c r="A287" s="1">
         <v>283</v>
       </c>
@@ -2738,7 +3297,7 @@
         <v>860010490</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" customHeight="1" spans="1:2">
       <c r="A288" s="1">
         <v>284</v>
       </c>
@@ -2746,7 +3305,7 @@
         <v>903011010</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" customHeight="1" spans="1:2">
       <c r="A289" s="1">
         <v>285</v>
       </c>
@@ -2754,7 +3313,7 @@
         <v>948161560</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" customHeight="1" spans="1:2">
       <c r="A290" s="1">
         <v>286</v>
       </c>
@@ -2762,7 +3321,7 @@
         <v>995569630</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" customHeight="1" spans="1:2">
       <c r="A291" s="1">
         <v>287</v>
       </c>
@@ -2770,7 +3329,7 @@
         <v>1045348110</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" customHeight="1" spans="1:2">
       <c r="A292" s="1">
         <v>288</v>
       </c>
@@ -2778,7 +3337,7 @@
         <v>1097615510</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" customHeight="1" spans="1:2">
       <c r="A293" s="1">
         <v>289</v>
       </c>
@@ -2786,7 +3345,7 @@
         <v>1152496280</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" customHeight="1" spans="1:2">
       <c r="A294" s="1">
         <v>290</v>
       </c>
@@ -2794,7 +3353,7 @@
         <v>1210121090</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" customHeight="1" spans="1:2">
       <c r="A295" s="1">
         <v>291</v>
       </c>
@@ -2802,7 +3361,7 @@
         <v>1270627140</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" customHeight="1" spans="1:2">
       <c r="A296" s="1">
         <v>292</v>
       </c>
@@ -2810,7 +3369,7 @@
         <v>1334158490</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" customHeight="1" spans="1:2">
       <c r="A297" s="1">
         <v>293</v>
       </c>
@@ -2818,7 +3377,7 @@
         <v>1400866410</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" customHeight="1" spans="1:2">
       <c r="A298" s="1">
         <v>294</v>
       </c>
@@ -2826,7 +3385,7 @@
         <v>1470909730</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" customHeight="1" spans="1:2">
       <c r="A299" s="1">
         <v>295</v>
       </c>
@@ -2834,7 +3393,7 @@
         <v>1544455210</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" customHeight="1" spans="1:2">
       <c r="A300" s="1">
         <v>296</v>
       </c>
@@ -2842,7 +3401,7 @@
         <v>1621677970</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" customHeight="1" spans="1:2">
       <c r="A301" s="1">
         <v>297</v>
       </c>
@@ -2850,7 +3409,7 @@
         <v>1702761860</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" customHeight="1" spans="1:2">
       <c r="A302" s="1">
         <v>298</v>
       </c>
@@ -2858,7 +3417,7 @@
         <v>1787899950</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" customHeight="1" spans="1:2">
       <c r="A303" s="1">
         <v>299</v>
       </c>
@@ -2866,7 +3425,7 @@
         <v>1877294940</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" customHeight="1" spans="1:2">
       <c r="A304" s="1">
         <v>300</v>
       </c>
@@ -2874,27 +3433,5631 @@
         <v>1971159680</v>
       </c>
     </row>
+    <row r="305" customHeight="1" spans="1:2">
+      <c r="A305" s="1">
+        <v>301</v>
+      </c>
+      <c r="B305" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="306" customHeight="1" spans="1:2">
+      <c r="A306" s="1">
+        <v>302</v>
+      </c>
+      <c r="B306" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="307" customHeight="1" spans="1:2">
+      <c r="A307" s="1">
+        <v>303</v>
+      </c>
+      <c r="B307" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="308" customHeight="1" spans="1:2">
+      <c r="A308" s="1">
+        <v>304</v>
+      </c>
+      <c r="B308" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="309" customHeight="1" spans="1:2">
+      <c r="A309" s="1">
+        <v>305</v>
+      </c>
+      <c r="B309" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="310" customHeight="1" spans="1:2">
+      <c r="A310" s="1">
+        <v>306</v>
+      </c>
+      <c r="B310" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="311" customHeight="1" spans="1:2">
+      <c r="A311" s="1">
+        <v>307</v>
+      </c>
+      <c r="B311" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="312" customHeight="1" spans="1:2">
+      <c r="A312" s="1">
+        <v>308</v>
+      </c>
+      <c r="B312" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="313" customHeight="1" spans="1:2">
+      <c r="A313" s="1">
+        <v>309</v>
+      </c>
+      <c r="B313" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="314" customHeight="1" spans="1:2">
+      <c r="A314" s="1">
+        <v>310</v>
+      </c>
+      <c r="B314" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="315" customHeight="1" spans="1:2">
+      <c r="A315" s="1">
+        <v>311</v>
+      </c>
+      <c r="B315" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="316" customHeight="1" spans="1:2">
+      <c r="A316" s="1">
+        <v>312</v>
+      </c>
+      <c r="B316" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="317" customHeight="1" spans="1:2">
+      <c r="A317" s="1">
+        <v>313</v>
+      </c>
+      <c r="B317" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="318" customHeight="1" spans="1:2">
+      <c r="A318" s="1">
+        <v>314</v>
+      </c>
+      <c r="B318" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="319" customHeight="1" spans="1:2">
+      <c r="A319" s="1">
+        <v>315</v>
+      </c>
+      <c r="B319" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="320" customHeight="1" spans="1:2">
+      <c r="A320" s="1">
+        <v>316</v>
+      </c>
+      <c r="B320" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="321" customHeight="1" spans="1:2">
+      <c r="A321" s="1">
+        <v>317</v>
+      </c>
+      <c r="B321" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="322" customHeight="1" spans="1:2">
+      <c r="A322" s="1">
+        <v>318</v>
+      </c>
+      <c r="B322" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="323" customHeight="1" spans="1:2">
+      <c r="A323" s="1">
+        <v>319</v>
+      </c>
+      <c r="B323" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="324" customHeight="1" spans="1:2">
+      <c r="A324" s="1">
+        <v>320</v>
+      </c>
+      <c r="B324" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="325" customHeight="1" spans="1:2">
+      <c r="A325" s="1">
+        <v>321</v>
+      </c>
+      <c r="B325" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="326" customHeight="1" spans="1:2">
+      <c r="A326" s="1">
+        <v>322</v>
+      </c>
+      <c r="B326" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="327" customHeight="1" spans="1:2">
+      <c r="A327" s="1">
+        <v>323</v>
+      </c>
+      <c r="B327" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="328" customHeight="1" spans="1:2">
+      <c r="A328" s="1">
+        <v>324</v>
+      </c>
+      <c r="B328" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="329" customHeight="1" spans="1:2">
+      <c r="A329" s="1">
+        <v>325</v>
+      </c>
+      <c r="B329" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="330" customHeight="1" spans="1:2">
+      <c r="A330" s="1">
+        <v>326</v>
+      </c>
+      <c r="B330" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="331" customHeight="1" spans="1:2">
+      <c r="A331" s="1">
+        <v>327</v>
+      </c>
+      <c r="B331" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="332" customHeight="1" spans="1:2">
+      <c r="A332" s="1">
+        <v>328</v>
+      </c>
+      <c r="B332" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="333" customHeight="1" spans="1:2">
+      <c r="A333" s="1">
+        <v>329</v>
+      </c>
+      <c r="B333" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="334" customHeight="1" spans="1:2">
+      <c r="A334" s="1">
+        <v>330</v>
+      </c>
+      <c r="B334" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="335" customHeight="1" spans="1:2">
+      <c r="A335" s="1">
+        <v>331</v>
+      </c>
+      <c r="B335" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="336" customHeight="1" spans="1:2">
+      <c r="A336" s="1">
+        <v>332</v>
+      </c>
+      <c r="B336" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="337" customHeight="1" spans="1:2">
+      <c r="A337" s="1">
+        <v>333</v>
+      </c>
+      <c r="B337" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="338" customHeight="1" spans="1:2">
+      <c r="A338" s="1">
+        <v>334</v>
+      </c>
+      <c r="B338" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="339" customHeight="1" spans="1:2">
+      <c r="A339" s="1">
+        <v>335</v>
+      </c>
+      <c r="B339" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="340" customHeight="1" spans="1:2">
+      <c r="A340" s="1">
+        <v>336</v>
+      </c>
+      <c r="B340" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="341" customHeight="1" spans="1:2">
+      <c r="A341" s="1">
+        <v>337</v>
+      </c>
+      <c r="B341" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="342" customHeight="1" spans="1:2">
+      <c r="A342" s="1">
+        <v>338</v>
+      </c>
+      <c r="B342" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="343" customHeight="1" spans="1:2">
+      <c r="A343" s="1">
+        <v>339</v>
+      </c>
+      <c r="B343" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="344" customHeight="1" spans="1:2">
+      <c r="A344" s="1">
+        <v>340</v>
+      </c>
+      <c r="B344" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="345" customHeight="1" spans="1:2">
+      <c r="A345" s="1">
+        <v>341</v>
+      </c>
+      <c r="B345" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="346" customHeight="1" spans="1:2">
+      <c r="A346" s="1">
+        <v>342</v>
+      </c>
+      <c r="B346" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="347" customHeight="1" spans="1:2">
+      <c r="A347" s="1">
+        <v>343</v>
+      </c>
+      <c r="B347" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="348" customHeight="1" spans="1:2">
+      <c r="A348" s="1">
+        <v>344</v>
+      </c>
+      <c r="B348" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="349" customHeight="1" spans="1:2">
+      <c r="A349" s="1">
+        <v>345</v>
+      </c>
+      <c r="B349" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="350" customHeight="1" spans="1:2">
+      <c r="A350" s="1">
+        <v>346</v>
+      </c>
+      <c r="B350" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="351" customHeight="1" spans="1:2">
+      <c r="A351" s="1">
+        <v>347</v>
+      </c>
+      <c r="B351" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="352" customHeight="1" spans="1:2">
+      <c r="A352" s="1">
+        <v>348</v>
+      </c>
+      <c r="B352" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="353" customHeight="1" spans="1:2">
+      <c r="A353" s="1">
+        <v>349</v>
+      </c>
+      <c r="B353" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="354" customHeight="1" spans="1:2">
+      <c r="A354" s="1">
+        <v>350</v>
+      </c>
+      <c r="B354" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="355" customHeight="1" spans="1:2">
+      <c r="A355" s="1">
+        <v>351</v>
+      </c>
+      <c r="B355" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="356" customHeight="1" spans="1:2">
+      <c r="A356" s="1">
+        <v>352</v>
+      </c>
+      <c r="B356" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="357" customHeight="1" spans="1:2">
+      <c r="A357" s="1">
+        <v>353</v>
+      </c>
+      <c r="B357" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="358" customHeight="1" spans="1:2">
+      <c r="A358" s="1">
+        <v>354</v>
+      </c>
+      <c r="B358" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="359" customHeight="1" spans="1:2">
+      <c r="A359" s="1">
+        <v>355</v>
+      </c>
+      <c r="B359" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="360" customHeight="1" spans="1:2">
+      <c r="A360" s="1">
+        <v>356</v>
+      </c>
+      <c r="B360" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="361" customHeight="1" spans="1:2">
+      <c r="A361" s="1">
+        <v>357</v>
+      </c>
+      <c r="B361" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="362" customHeight="1" spans="1:2">
+      <c r="A362" s="1">
+        <v>358</v>
+      </c>
+      <c r="B362" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="363" customHeight="1" spans="1:2">
+      <c r="A363" s="1">
+        <v>359</v>
+      </c>
+      <c r="B363" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="364" customHeight="1" spans="1:2">
+      <c r="A364" s="1">
+        <v>360</v>
+      </c>
+      <c r="B364" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="365" customHeight="1" spans="1:2">
+      <c r="A365" s="1">
+        <v>361</v>
+      </c>
+      <c r="B365" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="366" customHeight="1" spans="1:2">
+      <c r="A366" s="1">
+        <v>362</v>
+      </c>
+      <c r="B366" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="367" customHeight="1" spans="1:2">
+      <c r="A367" s="1">
+        <v>363</v>
+      </c>
+      <c r="B367" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="368" customHeight="1" spans="1:2">
+      <c r="A368" s="1">
+        <v>364</v>
+      </c>
+      <c r="B368" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="369" customHeight="1" spans="1:2">
+      <c r="A369" s="1">
+        <v>365</v>
+      </c>
+      <c r="B369" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="370" customHeight="1" spans="1:2">
+      <c r="A370" s="1">
+        <v>366</v>
+      </c>
+      <c r="B370" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="371" customHeight="1" spans="1:2">
+      <c r="A371" s="1">
+        <v>367</v>
+      </c>
+      <c r="B371" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="372" customHeight="1" spans="1:2">
+      <c r="A372" s="1">
+        <v>368</v>
+      </c>
+      <c r="B372" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="373" customHeight="1" spans="1:2">
+      <c r="A373" s="1">
+        <v>369</v>
+      </c>
+      <c r="B373" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="374" customHeight="1" spans="1:2">
+      <c r="A374" s="1">
+        <v>370</v>
+      </c>
+      <c r="B374" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="375" customHeight="1" spans="1:2">
+      <c r="A375" s="1">
+        <v>371</v>
+      </c>
+      <c r="B375" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="376" customHeight="1" spans="1:2">
+      <c r="A376" s="1">
+        <v>372</v>
+      </c>
+      <c r="B376" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="377" customHeight="1" spans="1:2">
+      <c r="A377" s="1">
+        <v>373</v>
+      </c>
+      <c r="B377" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="378" customHeight="1" spans="1:2">
+      <c r="A378" s="1">
+        <v>374</v>
+      </c>
+      <c r="B378" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="379" customHeight="1" spans="1:2">
+      <c r="A379" s="1">
+        <v>375</v>
+      </c>
+      <c r="B379" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="380" customHeight="1" spans="1:2">
+      <c r="A380" s="1">
+        <v>376</v>
+      </c>
+      <c r="B380" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="381" customHeight="1" spans="1:2">
+      <c r="A381" s="1">
+        <v>377</v>
+      </c>
+      <c r="B381" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="382" customHeight="1" spans="1:2">
+      <c r="A382" s="1">
+        <v>378</v>
+      </c>
+      <c r="B382" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="383" customHeight="1" spans="1:2">
+      <c r="A383" s="1">
+        <v>379</v>
+      </c>
+      <c r="B383" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="384" customHeight="1" spans="1:2">
+      <c r="A384" s="1">
+        <v>380</v>
+      </c>
+      <c r="B384" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="385" customHeight="1" spans="1:2">
+      <c r="A385" s="1">
+        <v>381</v>
+      </c>
+      <c r="B385" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="386" customHeight="1" spans="1:2">
+      <c r="A386" s="1">
+        <v>382</v>
+      </c>
+      <c r="B386" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="387" customHeight="1" spans="1:2">
+      <c r="A387" s="1">
+        <v>383</v>
+      </c>
+      <c r="B387" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="388" customHeight="1" spans="1:2">
+      <c r="A388" s="1">
+        <v>384</v>
+      </c>
+      <c r="B388" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="389" customHeight="1" spans="1:2">
+      <c r="A389" s="1">
+        <v>385</v>
+      </c>
+      <c r="B389" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="390" customHeight="1" spans="1:2">
+      <c r="A390" s="1">
+        <v>386</v>
+      </c>
+      <c r="B390" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="391" customHeight="1" spans="1:2">
+      <c r="A391" s="1">
+        <v>387</v>
+      </c>
+      <c r="B391" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="392" customHeight="1" spans="1:2">
+      <c r="A392" s="1">
+        <v>388</v>
+      </c>
+      <c r="B392" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="393" customHeight="1" spans="1:2">
+      <c r="A393" s="1">
+        <v>389</v>
+      </c>
+      <c r="B393" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="394" customHeight="1" spans="1:2">
+      <c r="A394" s="1">
+        <v>390</v>
+      </c>
+      <c r="B394" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="395" customHeight="1" spans="1:2">
+      <c r="A395" s="1">
+        <v>391</v>
+      </c>
+      <c r="B395" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="396" customHeight="1" spans="1:2">
+      <c r="A396" s="1">
+        <v>392</v>
+      </c>
+      <c r="B396" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="397" customHeight="1" spans="1:2">
+      <c r="A397" s="1">
+        <v>393</v>
+      </c>
+      <c r="B397" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="398" customHeight="1" spans="1:2">
+      <c r="A398" s="1">
+        <v>394</v>
+      </c>
+      <c r="B398" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="399" customHeight="1" spans="1:2">
+      <c r="A399" s="1">
+        <v>395</v>
+      </c>
+      <c r="B399" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="400" customHeight="1" spans="1:2">
+      <c r="A400" s="1">
+        <v>396</v>
+      </c>
+      <c r="B400" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="401" customHeight="1" spans="1:2">
+      <c r="A401" s="1">
+        <v>397</v>
+      </c>
+      <c r="B401" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="402" customHeight="1" spans="1:2">
+      <c r="A402" s="1">
+        <v>398</v>
+      </c>
+      <c r="B402" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="403" customHeight="1" spans="1:2">
+      <c r="A403" s="1">
+        <v>399</v>
+      </c>
+      <c r="B403" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="404" customHeight="1" spans="1:2">
+      <c r="A404" s="1">
+        <v>400</v>
+      </c>
+      <c r="B404" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="405" customHeight="1" spans="1:2">
+      <c r="A405" s="1">
+        <v>401</v>
+      </c>
+      <c r="B405" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="406" customHeight="1" spans="1:2">
+      <c r="A406" s="1">
+        <v>402</v>
+      </c>
+      <c r="B406" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="407" customHeight="1" spans="1:2">
+      <c r="A407" s="1">
+        <v>403</v>
+      </c>
+      <c r="B407" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="408" customHeight="1" spans="1:2">
+      <c r="A408" s="1">
+        <v>404</v>
+      </c>
+      <c r="B408" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="409" customHeight="1" spans="1:2">
+      <c r="A409" s="1">
+        <v>405</v>
+      </c>
+      <c r="B409" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="410" customHeight="1" spans="1:2">
+      <c r="A410" s="1">
+        <v>406</v>
+      </c>
+      <c r="B410" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="411" customHeight="1" spans="1:2">
+      <c r="A411" s="1">
+        <v>407</v>
+      </c>
+      <c r="B411" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="412" customHeight="1" spans="1:2">
+      <c r="A412" s="1">
+        <v>408</v>
+      </c>
+      <c r="B412" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="413" customHeight="1" spans="1:2">
+      <c r="A413" s="1">
+        <v>409</v>
+      </c>
+      <c r="B413" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="414" customHeight="1" spans="1:2">
+      <c r="A414" s="1">
+        <v>410</v>
+      </c>
+      <c r="B414" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="415" customHeight="1" spans="1:2">
+      <c r="A415" s="1">
+        <v>411</v>
+      </c>
+      <c r="B415" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="416" customHeight="1" spans="1:2">
+      <c r="A416" s="1">
+        <v>412</v>
+      </c>
+      <c r="B416" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="417" customHeight="1" spans="1:2">
+      <c r="A417" s="1">
+        <v>413</v>
+      </c>
+      <c r="B417" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="418" customHeight="1" spans="1:2">
+      <c r="A418" s="1">
+        <v>414</v>
+      </c>
+      <c r="B418" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="419" customHeight="1" spans="1:2">
+      <c r="A419" s="1">
+        <v>415</v>
+      </c>
+      <c r="B419" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="420" customHeight="1" spans="1:2">
+      <c r="A420" s="1">
+        <v>416</v>
+      </c>
+      <c r="B420" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="421" customHeight="1" spans="1:2">
+      <c r="A421" s="1">
+        <v>417</v>
+      </c>
+      <c r="B421" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="422" customHeight="1" spans="1:2">
+      <c r="A422" s="1">
+        <v>418</v>
+      </c>
+      <c r="B422" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="423" customHeight="1" spans="1:2">
+      <c r="A423" s="1">
+        <v>419</v>
+      </c>
+      <c r="B423" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="424" customHeight="1" spans="1:2">
+      <c r="A424" s="1">
+        <v>420</v>
+      </c>
+      <c r="B424" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="425" customHeight="1" spans="1:2">
+      <c r="A425" s="1">
+        <v>421</v>
+      </c>
+      <c r="B425" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="426" customHeight="1" spans="1:2">
+      <c r="A426" s="1">
+        <v>422</v>
+      </c>
+      <c r="B426" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="427" customHeight="1" spans="1:2">
+      <c r="A427" s="1">
+        <v>423</v>
+      </c>
+      <c r="B427" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="428" customHeight="1" spans="1:2">
+      <c r="A428" s="1">
+        <v>424</v>
+      </c>
+      <c r="B428" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="429" customHeight="1" spans="1:2">
+      <c r="A429" s="1">
+        <v>425</v>
+      </c>
+      <c r="B429" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="430" customHeight="1" spans="1:2">
+      <c r="A430" s="1">
+        <v>426</v>
+      </c>
+      <c r="B430" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="431" customHeight="1" spans="1:2">
+      <c r="A431" s="1">
+        <v>427</v>
+      </c>
+      <c r="B431" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="432" customHeight="1" spans="1:2">
+      <c r="A432" s="1">
+        <v>428</v>
+      </c>
+      <c r="B432" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="433" customHeight="1" spans="1:2">
+      <c r="A433" s="1">
+        <v>429</v>
+      </c>
+      <c r="B433" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="434" customHeight="1" spans="1:2">
+      <c r="A434" s="1">
+        <v>430</v>
+      </c>
+      <c r="B434" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="435" customHeight="1" spans="1:2">
+      <c r="A435" s="1">
+        <v>431</v>
+      </c>
+      <c r="B435" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="436" customHeight="1" spans="1:2">
+      <c r="A436" s="1">
+        <v>432</v>
+      </c>
+      <c r="B436" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="437" customHeight="1" spans="1:2">
+      <c r="A437" s="1">
+        <v>433</v>
+      </c>
+      <c r="B437" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="438" customHeight="1" spans="1:2">
+      <c r="A438" s="1">
+        <v>434</v>
+      </c>
+      <c r="B438" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="439" customHeight="1" spans="1:2">
+      <c r="A439" s="1">
+        <v>435</v>
+      </c>
+      <c r="B439" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="440" customHeight="1" spans="1:2">
+      <c r="A440" s="1">
+        <v>436</v>
+      </c>
+      <c r="B440" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="441" customHeight="1" spans="1:2">
+      <c r="A441" s="1">
+        <v>437</v>
+      </c>
+      <c r="B441" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="442" customHeight="1" spans="1:2">
+      <c r="A442" s="1">
+        <v>438</v>
+      </c>
+      <c r="B442" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="443" customHeight="1" spans="1:2">
+      <c r="A443" s="1">
+        <v>439</v>
+      </c>
+      <c r="B443" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="444" customHeight="1" spans="1:2">
+      <c r="A444" s="1">
+        <v>440</v>
+      </c>
+      <c r="B444" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="445" customHeight="1" spans="1:2">
+      <c r="A445" s="1">
+        <v>441</v>
+      </c>
+      <c r="B445" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="446" customHeight="1" spans="1:2">
+      <c r="A446" s="1">
+        <v>442</v>
+      </c>
+      <c r="B446" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="447" customHeight="1" spans="1:2">
+      <c r="A447" s="1">
+        <v>443</v>
+      </c>
+      <c r="B447" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="448" customHeight="1" spans="1:2">
+      <c r="A448" s="1">
+        <v>444</v>
+      </c>
+      <c r="B448" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="449" customHeight="1" spans="1:2">
+      <c r="A449" s="1">
+        <v>445</v>
+      </c>
+      <c r="B449" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="450" customHeight="1" spans="1:2">
+      <c r="A450" s="1">
+        <v>446</v>
+      </c>
+      <c r="B450" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="451" customHeight="1" spans="1:2">
+      <c r="A451" s="1">
+        <v>447</v>
+      </c>
+      <c r="B451" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="452" customHeight="1" spans="1:2">
+      <c r="A452" s="1">
+        <v>448</v>
+      </c>
+      <c r="B452" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="453" customHeight="1" spans="1:2">
+      <c r="A453" s="1">
+        <v>449</v>
+      </c>
+      <c r="B453" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="454" customHeight="1" spans="1:2">
+      <c r="A454" s="1">
+        <v>450</v>
+      </c>
+      <c r="B454" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="455" customHeight="1" spans="1:2">
+      <c r="A455" s="1">
+        <v>451</v>
+      </c>
+      <c r="B455" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="456" customHeight="1" spans="1:2">
+      <c r="A456" s="1">
+        <v>452</v>
+      </c>
+      <c r="B456" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="457" customHeight="1" spans="1:2">
+      <c r="A457" s="1">
+        <v>453</v>
+      </c>
+      <c r="B457" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="458" customHeight="1" spans="1:2">
+      <c r="A458" s="1">
+        <v>454</v>
+      </c>
+      <c r="B458" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="459" customHeight="1" spans="1:2">
+      <c r="A459" s="1">
+        <v>455</v>
+      </c>
+      <c r="B459" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="460" customHeight="1" spans="1:2">
+      <c r="A460" s="1">
+        <v>456</v>
+      </c>
+      <c r="B460" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="461" customHeight="1" spans="1:2">
+      <c r="A461" s="1">
+        <v>457</v>
+      </c>
+      <c r="B461" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="462" customHeight="1" spans="1:2">
+      <c r="A462" s="1">
+        <v>458</v>
+      </c>
+      <c r="B462" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="463" customHeight="1" spans="1:2">
+      <c r="A463" s="1">
+        <v>459</v>
+      </c>
+      <c r="B463" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="464" customHeight="1" spans="1:2">
+      <c r="A464" s="1">
+        <v>460</v>
+      </c>
+      <c r="B464" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="465" customHeight="1" spans="1:2">
+      <c r="A465" s="1">
+        <v>461</v>
+      </c>
+      <c r="B465" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="466" customHeight="1" spans="1:2">
+      <c r="A466" s="1">
+        <v>462</v>
+      </c>
+      <c r="B466" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="467" customHeight="1" spans="1:2">
+      <c r="A467" s="1">
+        <v>463</v>
+      </c>
+      <c r="B467" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="468" customHeight="1" spans="1:2">
+      <c r="A468" s="1">
+        <v>464</v>
+      </c>
+      <c r="B468" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="469" customHeight="1" spans="1:2">
+      <c r="A469" s="1">
+        <v>465</v>
+      </c>
+      <c r="B469" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="470" customHeight="1" spans="1:2">
+      <c r="A470" s="1">
+        <v>466</v>
+      </c>
+      <c r="B470" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="471" customHeight="1" spans="1:2">
+      <c r="A471" s="1">
+        <v>467</v>
+      </c>
+      <c r="B471" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="472" customHeight="1" spans="1:2">
+      <c r="A472" s="1">
+        <v>468</v>
+      </c>
+      <c r="B472" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="473" customHeight="1" spans="1:2">
+      <c r="A473" s="1">
+        <v>469</v>
+      </c>
+      <c r="B473" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="474" customHeight="1" spans="1:2">
+      <c r="A474" s="1">
+        <v>470</v>
+      </c>
+      <c r="B474" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="475" customHeight="1" spans="1:2">
+      <c r="A475" s="1">
+        <v>471</v>
+      </c>
+      <c r="B475" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="476" customHeight="1" spans="1:2">
+      <c r="A476" s="1">
+        <v>472</v>
+      </c>
+      <c r="B476" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="477" customHeight="1" spans="1:2">
+      <c r="A477" s="1">
+        <v>473</v>
+      </c>
+      <c r="B477" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="478" customHeight="1" spans="1:2">
+      <c r="A478" s="1">
+        <v>474</v>
+      </c>
+      <c r="B478" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="479" customHeight="1" spans="1:2">
+      <c r="A479" s="1">
+        <v>475</v>
+      </c>
+      <c r="B479" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="480" customHeight="1" spans="1:2">
+      <c r="A480" s="1">
+        <v>476</v>
+      </c>
+      <c r="B480" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="481" customHeight="1" spans="1:2">
+      <c r="A481" s="1">
+        <v>477</v>
+      </c>
+      <c r="B481" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="482" customHeight="1" spans="1:2">
+      <c r="A482" s="1">
+        <v>478</v>
+      </c>
+      <c r="B482" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="483" customHeight="1" spans="1:2">
+      <c r="A483" s="1">
+        <v>479</v>
+      </c>
+      <c r="B483" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="484" customHeight="1" spans="1:2">
+      <c r="A484" s="1">
+        <v>480</v>
+      </c>
+      <c r="B484" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="485" customHeight="1" spans="1:2">
+      <c r="A485" s="1">
+        <v>481</v>
+      </c>
+      <c r="B485" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="486" customHeight="1" spans="1:2">
+      <c r="A486" s="1">
+        <v>482</v>
+      </c>
+      <c r="B486" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="487" customHeight="1" spans="1:2">
+      <c r="A487" s="1">
+        <v>483</v>
+      </c>
+      <c r="B487" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="488" customHeight="1" spans="1:2">
+      <c r="A488" s="1">
+        <v>484</v>
+      </c>
+      <c r="B488" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="489" customHeight="1" spans="1:2">
+      <c r="A489" s="1">
+        <v>485</v>
+      </c>
+      <c r="B489" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="490" customHeight="1" spans="1:2">
+      <c r="A490" s="1">
+        <v>486</v>
+      </c>
+      <c r="B490" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="491" customHeight="1" spans="1:2">
+      <c r="A491" s="1">
+        <v>487</v>
+      </c>
+      <c r="B491" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="492" customHeight="1" spans="1:2">
+      <c r="A492" s="1">
+        <v>488</v>
+      </c>
+      <c r="B492" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="493" customHeight="1" spans="1:2">
+      <c r="A493" s="1">
+        <v>489</v>
+      </c>
+      <c r="B493" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="494" customHeight="1" spans="1:2">
+      <c r="A494" s="1">
+        <v>490</v>
+      </c>
+      <c r="B494" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="495" customHeight="1" spans="1:2">
+      <c r="A495" s="1">
+        <v>491</v>
+      </c>
+      <c r="B495" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="496" customHeight="1" spans="1:2">
+      <c r="A496" s="1">
+        <v>492</v>
+      </c>
+      <c r="B496" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="497" customHeight="1" spans="1:2">
+      <c r="A497" s="1">
+        <v>493</v>
+      </c>
+      <c r="B497" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="498" customHeight="1" spans="1:2">
+      <c r="A498" s="1">
+        <v>494</v>
+      </c>
+      <c r="B498" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="499" customHeight="1" spans="1:2">
+      <c r="A499" s="1">
+        <v>495</v>
+      </c>
+      <c r="B499" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="500" customHeight="1" spans="1:2">
+      <c r="A500" s="1">
+        <v>496</v>
+      </c>
+      <c r="B500" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="501" customHeight="1" spans="1:2">
+      <c r="A501" s="1">
+        <v>497</v>
+      </c>
+      <c r="B501" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="502" customHeight="1" spans="1:2">
+      <c r="A502" s="1">
+        <v>498</v>
+      </c>
+      <c r="B502" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="503" customHeight="1" spans="1:2">
+      <c r="A503" s="1">
+        <v>499</v>
+      </c>
+      <c r="B503" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="504" customHeight="1" spans="1:2">
+      <c r="A504" s="1">
+        <v>500</v>
+      </c>
+      <c r="B504" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="505" customHeight="1" spans="1:2">
+      <c r="A505" s="1">
+        <v>501</v>
+      </c>
+      <c r="B505" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="506" customHeight="1" spans="1:2">
+      <c r="A506" s="1">
+        <v>502</v>
+      </c>
+      <c r="B506" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="507" customHeight="1" spans="1:2">
+      <c r="A507" s="1">
+        <v>503</v>
+      </c>
+      <c r="B507" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="508" customHeight="1" spans="1:2">
+      <c r="A508" s="1">
+        <v>504</v>
+      </c>
+      <c r="B508" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="509" customHeight="1" spans="1:2">
+      <c r="A509" s="1">
+        <v>505</v>
+      </c>
+      <c r="B509" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="510" customHeight="1" spans="1:2">
+      <c r="A510" s="1">
+        <v>506</v>
+      </c>
+      <c r="B510" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="511" customHeight="1" spans="1:2">
+      <c r="A511" s="1">
+        <v>507</v>
+      </c>
+      <c r="B511" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="512" customHeight="1" spans="1:2">
+      <c r="A512" s="1">
+        <v>508</v>
+      </c>
+      <c r="B512" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="513" customHeight="1" spans="1:2">
+      <c r="A513" s="1">
+        <v>509</v>
+      </c>
+      <c r="B513" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="514" customHeight="1" spans="1:2">
+      <c r="A514" s="1">
+        <v>510</v>
+      </c>
+      <c r="B514" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="515" customHeight="1" spans="1:2">
+      <c r="A515" s="1">
+        <v>511</v>
+      </c>
+      <c r="B515" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="516" customHeight="1" spans="1:2">
+      <c r="A516" s="1">
+        <v>512</v>
+      </c>
+      <c r="B516" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="517" customHeight="1" spans="1:2">
+      <c r="A517" s="1">
+        <v>513</v>
+      </c>
+      <c r="B517" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="518" customHeight="1" spans="1:2">
+      <c r="A518" s="1">
+        <v>514</v>
+      </c>
+      <c r="B518" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="519" customHeight="1" spans="1:2">
+      <c r="A519" s="1">
+        <v>515</v>
+      </c>
+      <c r="B519" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="520" customHeight="1" spans="1:2">
+      <c r="A520" s="1">
+        <v>516</v>
+      </c>
+      <c r="B520" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="521" customHeight="1" spans="1:2">
+      <c r="A521" s="1">
+        <v>517</v>
+      </c>
+      <c r="B521" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="522" customHeight="1" spans="1:2">
+      <c r="A522" s="1">
+        <v>518</v>
+      </c>
+      <c r="B522" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="523" customHeight="1" spans="1:2">
+      <c r="A523" s="1">
+        <v>519</v>
+      </c>
+      <c r="B523" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="524" customHeight="1" spans="1:2">
+      <c r="A524" s="1">
+        <v>520</v>
+      </c>
+      <c r="B524" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="525" customHeight="1" spans="1:2">
+      <c r="A525" s="1">
+        <v>521</v>
+      </c>
+      <c r="B525" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="526" customHeight="1" spans="1:2">
+      <c r="A526" s="1">
+        <v>522</v>
+      </c>
+      <c r="B526" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="527" customHeight="1" spans="1:2">
+      <c r="A527" s="1">
+        <v>523</v>
+      </c>
+      <c r="B527" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="528" customHeight="1" spans="1:2">
+      <c r="A528" s="1">
+        <v>524</v>
+      </c>
+      <c r="B528" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="529" customHeight="1" spans="1:2">
+      <c r="A529" s="1">
+        <v>525</v>
+      </c>
+      <c r="B529" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="530" customHeight="1" spans="1:2">
+      <c r="A530" s="1">
+        <v>526</v>
+      </c>
+      <c r="B530" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="531" customHeight="1" spans="1:2">
+      <c r="A531" s="1">
+        <v>527</v>
+      </c>
+      <c r="B531" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="532" customHeight="1" spans="1:2">
+      <c r="A532" s="1">
+        <v>528</v>
+      </c>
+      <c r="B532" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="533" customHeight="1" spans="1:2">
+      <c r="A533" s="1">
+        <v>529</v>
+      </c>
+      <c r="B533" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="534" customHeight="1" spans="1:2">
+      <c r="A534" s="1">
+        <v>530</v>
+      </c>
+      <c r="B534" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="535" customHeight="1" spans="1:2">
+      <c r="A535" s="1">
+        <v>531</v>
+      </c>
+      <c r="B535" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="536" customHeight="1" spans="1:2">
+      <c r="A536" s="1">
+        <v>532</v>
+      </c>
+      <c r="B536" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="537" customHeight="1" spans="1:2">
+      <c r="A537" s="1">
+        <v>533</v>
+      </c>
+      <c r="B537" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="538" customHeight="1" spans="1:2">
+      <c r="A538" s="1">
+        <v>534</v>
+      </c>
+      <c r="B538" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="539" customHeight="1" spans="1:2">
+      <c r="A539" s="1">
+        <v>535</v>
+      </c>
+      <c r="B539" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="540" customHeight="1" spans="1:2">
+      <c r="A540" s="1">
+        <v>536</v>
+      </c>
+      <c r="B540" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="541" customHeight="1" spans="1:2">
+      <c r="A541" s="1">
+        <v>537</v>
+      </c>
+      <c r="B541" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="542" customHeight="1" spans="1:2">
+      <c r="A542" s="1">
+        <v>538</v>
+      </c>
+      <c r="B542" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="543" customHeight="1" spans="1:2">
+      <c r="A543" s="1">
+        <v>539</v>
+      </c>
+      <c r="B543" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="544" customHeight="1" spans="1:2">
+      <c r="A544" s="1">
+        <v>540</v>
+      </c>
+      <c r="B544" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="545" customHeight="1" spans="1:2">
+      <c r="A545" s="1">
+        <v>541</v>
+      </c>
+      <c r="B545" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="546" customHeight="1" spans="1:2">
+      <c r="A546" s="1">
+        <v>542</v>
+      </c>
+      <c r="B546" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="547" customHeight="1" spans="1:2">
+      <c r="A547" s="1">
+        <v>543</v>
+      </c>
+      <c r="B547" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="548" customHeight="1" spans="1:2">
+      <c r="A548" s="1">
+        <v>544</v>
+      </c>
+      <c r="B548" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="549" customHeight="1" spans="1:2">
+      <c r="A549" s="1">
+        <v>545</v>
+      </c>
+      <c r="B549" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="550" customHeight="1" spans="1:2">
+      <c r="A550" s="1">
+        <v>546</v>
+      </c>
+      <c r="B550" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="551" customHeight="1" spans="1:2">
+      <c r="A551" s="1">
+        <v>547</v>
+      </c>
+      <c r="B551" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="552" customHeight="1" spans="1:2">
+      <c r="A552" s="1">
+        <v>548</v>
+      </c>
+      <c r="B552" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="553" customHeight="1" spans="1:2">
+      <c r="A553" s="1">
+        <v>549</v>
+      </c>
+      <c r="B553" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="554" customHeight="1" spans="1:2">
+      <c r="A554" s="1">
+        <v>550</v>
+      </c>
+      <c r="B554" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="555" customHeight="1" spans="1:2">
+      <c r="A555" s="1">
+        <v>551</v>
+      </c>
+      <c r="B555" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="556" customHeight="1" spans="1:2">
+      <c r="A556" s="1">
+        <v>552</v>
+      </c>
+      <c r="B556" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="557" customHeight="1" spans="1:2">
+      <c r="A557" s="1">
+        <v>553</v>
+      </c>
+      <c r="B557" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="558" customHeight="1" spans="1:2">
+      <c r="A558" s="1">
+        <v>554</v>
+      </c>
+      <c r="B558" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="559" customHeight="1" spans="1:2">
+      <c r="A559" s="1">
+        <v>555</v>
+      </c>
+      <c r="B559" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="560" customHeight="1" spans="1:2">
+      <c r="A560" s="1">
+        <v>556</v>
+      </c>
+      <c r="B560" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="561" customHeight="1" spans="1:2">
+      <c r="A561" s="1">
+        <v>557</v>
+      </c>
+      <c r="B561" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="562" customHeight="1" spans="1:2">
+      <c r="A562" s="1">
+        <v>558</v>
+      </c>
+      <c r="B562" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="563" customHeight="1" spans="1:2">
+      <c r="A563" s="1">
+        <v>559</v>
+      </c>
+      <c r="B563" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="564" customHeight="1" spans="1:2">
+      <c r="A564" s="1">
+        <v>560</v>
+      </c>
+      <c r="B564" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="565" customHeight="1" spans="1:2">
+      <c r="A565" s="1">
+        <v>561</v>
+      </c>
+      <c r="B565" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="566" customHeight="1" spans="1:2">
+      <c r="A566" s="1">
+        <v>562</v>
+      </c>
+      <c r="B566" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="567" customHeight="1" spans="1:2">
+      <c r="A567" s="1">
+        <v>563</v>
+      </c>
+      <c r="B567" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="568" customHeight="1" spans="1:2">
+      <c r="A568" s="1">
+        <v>564</v>
+      </c>
+      <c r="B568" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="569" customHeight="1" spans="1:2">
+      <c r="A569" s="1">
+        <v>565</v>
+      </c>
+      <c r="B569" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="570" customHeight="1" spans="1:2">
+      <c r="A570" s="1">
+        <v>566</v>
+      </c>
+      <c r="B570" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="571" customHeight="1" spans="1:2">
+      <c r="A571" s="1">
+        <v>567</v>
+      </c>
+      <c r="B571" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="572" customHeight="1" spans="1:2">
+      <c r="A572" s="1">
+        <v>568</v>
+      </c>
+      <c r="B572" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="573" customHeight="1" spans="1:2">
+      <c r="A573" s="1">
+        <v>569</v>
+      </c>
+      <c r="B573" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="574" customHeight="1" spans="1:2">
+      <c r="A574" s="1">
+        <v>570</v>
+      </c>
+      <c r="B574" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="575" customHeight="1" spans="1:2">
+      <c r="A575" s="1">
+        <v>571</v>
+      </c>
+      <c r="B575" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="576" customHeight="1" spans="1:2">
+      <c r="A576" s="1">
+        <v>572</v>
+      </c>
+      <c r="B576" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="577" customHeight="1" spans="1:2">
+      <c r="A577" s="1">
+        <v>573</v>
+      </c>
+      <c r="B577" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="578" customHeight="1" spans="1:2">
+      <c r="A578" s="1">
+        <v>574</v>
+      </c>
+      <c r="B578" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="579" customHeight="1" spans="1:2">
+      <c r="A579" s="1">
+        <v>575</v>
+      </c>
+      <c r="B579" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="580" customHeight="1" spans="1:2">
+      <c r="A580" s="1">
+        <v>576</v>
+      </c>
+      <c r="B580" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="581" customHeight="1" spans="1:2">
+      <c r="A581" s="1">
+        <v>577</v>
+      </c>
+      <c r="B581" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="582" customHeight="1" spans="1:2">
+      <c r="A582" s="1">
+        <v>578</v>
+      </c>
+      <c r="B582" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="583" customHeight="1" spans="1:2">
+      <c r="A583" s="1">
+        <v>579</v>
+      </c>
+      <c r="B583" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="584" customHeight="1" spans="1:2">
+      <c r="A584" s="1">
+        <v>580</v>
+      </c>
+      <c r="B584" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="585" customHeight="1" spans="1:2">
+      <c r="A585" s="1">
+        <v>581</v>
+      </c>
+      <c r="B585" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="586" customHeight="1" spans="1:2">
+      <c r="A586" s="1">
+        <v>582</v>
+      </c>
+      <c r="B586" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="587" customHeight="1" spans="1:2">
+      <c r="A587" s="1">
+        <v>583</v>
+      </c>
+      <c r="B587" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="588" customHeight="1" spans="1:2">
+      <c r="A588" s="1">
+        <v>584</v>
+      </c>
+      <c r="B588" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="589" customHeight="1" spans="1:2">
+      <c r="A589" s="1">
+        <v>585</v>
+      </c>
+      <c r="B589" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="590" customHeight="1" spans="1:2">
+      <c r="A590" s="1">
+        <v>586</v>
+      </c>
+      <c r="B590" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="591" customHeight="1" spans="1:2">
+      <c r="A591" s="1">
+        <v>587</v>
+      </c>
+      <c r="B591" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="592" customHeight="1" spans="1:2">
+      <c r="A592" s="1">
+        <v>588</v>
+      </c>
+      <c r="B592" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="593" customHeight="1" spans="1:2">
+      <c r="A593" s="1">
+        <v>589</v>
+      </c>
+      <c r="B593" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="594" customHeight="1" spans="1:2">
+      <c r="A594" s="1">
+        <v>590</v>
+      </c>
+      <c r="B594" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="595" customHeight="1" spans="1:2">
+      <c r="A595" s="1">
+        <v>591</v>
+      </c>
+      <c r="B595" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="596" customHeight="1" spans="1:2">
+      <c r="A596" s="1">
+        <v>592</v>
+      </c>
+      <c r="B596" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="597" customHeight="1" spans="1:2">
+      <c r="A597" s="1">
+        <v>593</v>
+      </c>
+      <c r="B597" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="598" customHeight="1" spans="1:2">
+      <c r="A598" s="1">
+        <v>594</v>
+      </c>
+      <c r="B598" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="599" customHeight="1" spans="1:2">
+      <c r="A599" s="1">
+        <v>595</v>
+      </c>
+      <c r="B599" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="600" customHeight="1" spans="1:2">
+      <c r="A600" s="1">
+        <v>596</v>
+      </c>
+      <c r="B600" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="601" customHeight="1" spans="1:2">
+      <c r="A601" s="1">
+        <v>597</v>
+      </c>
+      <c r="B601" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="602" customHeight="1" spans="1:2">
+      <c r="A602" s="1">
+        <v>598</v>
+      </c>
+      <c r="B602" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="603" customHeight="1" spans="1:2">
+      <c r="A603" s="1">
+        <v>599</v>
+      </c>
+      <c r="B603" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="604" customHeight="1" spans="1:2">
+      <c r="A604" s="1">
+        <v>600</v>
+      </c>
+      <c r="B604" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="605" customHeight="1" spans="1:2">
+      <c r="A605" s="1">
+        <v>601</v>
+      </c>
+      <c r="B605" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="606" customHeight="1" spans="1:2">
+      <c r="A606" s="1">
+        <v>602</v>
+      </c>
+      <c r="B606" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="607" customHeight="1" spans="1:2">
+      <c r="A607" s="1">
+        <v>603</v>
+      </c>
+      <c r="B607" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="608" customHeight="1" spans="1:2">
+      <c r="A608" s="1">
+        <v>604</v>
+      </c>
+      <c r="B608" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="609" customHeight="1" spans="1:2">
+      <c r="A609" s="1">
+        <v>605</v>
+      </c>
+      <c r="B609" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="610" customHeight="1" spans="1:2">
+      <c r="A610" s="1">
+        <v>606</v>
+      </c>
+      <c r="B610" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="611" customHeight="1" spans="1:2">
+      <c r="A611" s="1">
+        <v>607</v>
+      </c>
+      <c r="B611" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="612" customHeight="1" spans="1:2">
+      <c r="A612" s="1">
+        <v>608</v>
+      </c>
+      <c r="B612" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="613" customHeight="1" spans="1:2">
+      <c r="A613" s="1">
+        <v>609</v>
+      </c>
+      <c r="B613" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="614" customHeight="1" spans="1:2">
+      <c r="A614" s="1">
+        <v>610</v>
+      </c>
+      <c r="B614" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="615" customHeight="1" spans="1:2">
+      <c r="A615" s="1">
+        <v>611</v>
+      </c>
+      <c r="B615" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="616" customHeight="1" spans="1:2">
+      <c r="A616" s="1">
+        <v>612</v>
+      </c>
+      <c r="B616" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="617" customHeight="1" spans="1:2">
+      <c r="A617" s="1">
+        <v>613</v>
+      </c>
+      <c r="B617" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="618" customHeight="1" spans="1:2">
+      <c r="A618" s="1">
+        <v>614</v>
+      </c>
+      <c r="B618" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="619" customHeight="1" spans="1:2">
+      <c r="A619" s="1">
+        <v>615</v>
+      </c>
+      <c r="B619" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="620" customHeight="1" spans="1:2">
+      <c r="A620" s="1">
+        <v>616</v>
+      </c>
+      <c r="B620" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="621" customHeight="1" spans="1:2">
+      <c r="A621" s="1">
+        <v>617</v>
+      </c>
+      <c r="B621" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="622" customHeight="1" spans="1:2">
+      <c r="A622" s="1">
+        <v>618</v>
+      </c>
+      <c r="B622" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="623" customHeight="1" spans="1:2">
+      <c r="A623" s="1">
+        <v>619</v>
+      </c>
+      <c r="B623" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="624" customHeight="1" spans="1:2">
+      <c r="A624" s="1">
+        <v>620</v>
+      </c>
+      <c r="B624" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="625" customHeight="1" spans="1:2">
+      <c r="A625" s="1">
+        <v>621</v>
+      </c>
+      <c r="B625" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="626" customHeight="1" spans="1:2">
+      <c r="A626" s="1">
+        <v>622</v>
+      </c>
+      <c r="B626" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="627" customHeight="1" spans="1:2">
+      <c r="A627" s="1">
+        <v>623</v>
+      </c>
+      <c r="B627" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="628" customHeight="1" spans="1:2">
+      <c r="A628" s="1">
+        <v>624</v>
+      </c>
+      <c r="B628" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="629" customHeight="1" spans="1:2">
+      <c r="A629" s="1">
+        <v>625</v>
+      </c>
+      <c r="B629" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="630" customHeight="1" spans="1:2">
+      <c r="A630" s="1">
+        <v>626</v>
+      </c>
+      <c r="B630" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="631" customHeight="1" spans="1:2">
+      <c r="A631" s="1">
+        <v>627</v>
+      </c>
+      <c r="B631" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="632" customHeight="1" spans="1:2">
+      <c r="A632" s="1">
+        <v>628</v>
+      </c>
+      <c r="B632" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="633" customHeight="1" spans="1:2">
+      <c r="A633" s="1">
+        <v>629</v>
+      </c>
+      <c r="B633" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="634" customHeight="1" spans="1:2">
+      <c r="A634" s="1">
+        <v>630</v>
+      </c>
+      <c r="B634" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="635" customHeight="1" spans="1:2">
+      <c r="A635" s="1">
+        <v>631</v>
+      </c>
+      <c r="B635" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="636" customHeight="1" spans="1:2">
+      <c r="A636" s="1">
+        <v>632</v>
+      </c>
+      <c r="B636" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="637" customHeight="1" spans="1:2">
+      <c r="A637" s="1">
+        <v>633</v>
+      </c>
+      <c r="B637" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="638" customHeight="1" spans="1:2">
+      <c r="A638" s="1">
+        <v>634</v>
+      </c>
+      <c r="B638" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="639" customHeight="1" spans="1:2">
+      <c r="A639" s="1">
+        <v>635</v>
+      </c>
+      <c r="B639" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="640" customHeight="1" spans="1:2">
+      <c r="A640" s="1">
+        <v>636</v>
+      </c>
+      <c r="B640" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="641" customHeight="1" spans="1:2">
+      <c r="A641" s="1">
+        <v>637</v>
+      </c>
+      <c r="B641" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="642" customHeight="1" spans="1:2">
+      <c r="A642" s="1">
+        <v>638</v>
+      </c>
+      <c r="B642" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="643" customHeight="1" spans="1:2">
+      <c r="A643" s="1">
+        <v>639</v>
+      </c>
+      <c r="B643" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="644" customHeight="1" spans="1:2">
+      <c r="A644" s="1">
+        <v>640</v>
+      </c>
+      <c r="B644" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="645" customHeight="1" spans="1:2">
+      <c r="A645" s="1">
+        <v>641</v>
+      </c>
+      <c r="B645" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="646" customHeight="1" spans="1:2">
+      <c r="A646" s="1">
+        <v>642</v>
+      </c>
+      <c r="B646" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="647" customHeight="1" spans="1:2">
+      <c r="A647" s="1">
+        <v>643</v>
+      </c>
+      <c r="B647" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="648" customHeight="1" spans="1:2">
+      <c r="A648" s="1">
+        <v>644</v>
+      </c>
+      <c r="B648" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="649" customHeight="1" spans="1:2">
+      <c r="A649" s="1">
+        <v>645</v>
+      </c>
+      <c r="B649" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="650" customHeight="1" spans="1:2">
+      <c r="A650" s="1">
+        <v>646</v>
+      </c>
+      <c r="B650" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="651" customHeight="1" spans="1:2">
+      <c r="A651" s="1">
+        <v>647</v>
+      </c>
+      <c r="B651" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="652" customHeight="1" spans="1:2">
+      <c r="A652" s="1">
+        <v>648</v>
+      </c>
+      <c r="B652" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="653" customHeight="1" spans="1:2">
+      <c r="A653" s="1">
+        <v>649</v>
+      </c>
+      <c r="B653" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="654" customHeight="1" spans="1:2">
+      <c r="A654" s="1">
+        <v>650</v>
+      </c>
+      <c r="B654" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="655" customHeight="1" spans="1:2">
+      <c r="A655" s="1">
+        <v>651</v>
+      </c>
+      <c r="B655" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="656" customHeight="1" spans="1:2">
+      <c r="A656" s="1">
+        <v>652</v>
+      </c>
+      <c r="B656" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="657" customHeight="1" spans="1:2">
+      <c r="A657" s="1">
+        <v>653</v>
+      </c>
+      <c r="B657" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="658" customHeight="1" spans="1:2">
+      <c r="A658" s="1">
+        <v>654</v>
+      </c>
+      <c r="B658" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="659" customHeight="1" spans="1:2">
+      <c r="A659" s="1">
+        <v>655</v>
+      </c>
+      <c r="B659" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="660" customHeight="1" spans="1:2">
+      <c r="A660" s="1">
+        <v>656</v>
+      </c>
+      <c r="B660" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="661" customHeight="1" spans="1:2">
+      <c r="A661" s="1">
+        <v>657</v>
+      </c>
+      <c r="B661" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="662" customHeight="1" spans="1:2">
+      <c r="A662" s="1">
+        <v>658</v>
+      </c>
+      <c r="B662" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="663" customHeight="1" spans="1:2">
+      <c r="A663" s="1">
+        <v>659</v>
+      </c>
+      <c r="B663" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="664" customHeight="1" spans="1:2">
+      <c r="A664" s="1">
+        <v>660</v>
+      </c>
+      <c r="B664" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="665" customHeight="1" spans="1:2">
+      <c r="A665" s="1">
+        <v>661</v>
+      </c>
+      <c r="B665" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="666" customHeight="1" spans="1:2">
+      <c r="A666" s="1">
+        <v>662</v>
+      </c>
+      <c r="B666" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="667" customHeight="1" spans="1:2">
+      <c r="A667" s="1">
+        <v>663</v>
+      </c>
+      <c r="B667" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="668" customHeight="1" spans="1:2">
+      <c r="A668" s="1">
+        <v>664</v>
+      </c>
+      <c r="B668" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="669" customHeight="1" spans="1:2">
+      <c r="A669" s="1">
+        <v>665</v>
+      </c>
+      <c r="B669" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="670" customHeight="1" spans="1:2">
+      <c r="A670" s="1">
+        <v>666</v>
+      </c>
+      <c r="B670" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="671" customHeight="1" spans="1:2">
+      <c r="A671" s="1">
+        <v>667</v>
+      </c>
+      <c r="B671" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="672" customHeight="1" spans="1:2">
+      <c r="A672" s="1">
+        <v>668</v>
+      </c>
+      <c r="B672" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="673" customHeight="1" spans="1:2">
+      <c r="A673" s="1">
+        <v>669</v>
+      </c>
+      <c r="B673" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="674" customHeight="1" spans="1:2">
+      <c r="A674" s="1">
+        <v>670</v>
+      </c>
+      <c r="B674" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="675" customHeight="1" spans="1:2">
+      <c r="A675" s="1">
+        <v>671</v>
+      </c>
+      <c r="B675" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="676" customHeight="1" spans="1:2">
+      <c r="A676" s="1">
+        <v>672</v>
+      </c>
+      <c r="B676" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="677" customHeight="1" spans="1:2">
+      <c r="A677" s="1">
+        <v>673</v>
+      </c>
+      <c r="B677" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="678" customHeight="1" spans="1:2">
+      <c r="A678" s="1">
+        <v>674</v>
+      </c>
+      <c r="B678" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="679" customHeight="1" spans="1:2">
+      <c r="A679" s="1">
+        <v>675</v>
+      </c>
+      <c r="B679" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="680" customHeight="1" spans="1:2">
+      <c r="A680" s="1">
+        <v>676</v>
+      </c>
+      <c r="B680" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="681" customHeight="1" spans="1:2">
+      <c r="A681" s="1">
+        <v>677</v>
+      </c>
+      <c r="B681" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="682" customHeight="1" spans="1:2">
+      <c r="A682" s="1">
+        <v>678</v>
+      </c>
+      <c r="B682" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="683" customHeight="1" spans="1:2">
+      <c r="A683" s="1">
+        <v>679</v>
+      </c>
+      <c r="B683" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="684" customHeight="1" spans="1:2">
+      <c r="A684" s="1">
+        <v>680</v>
+      </c>
+      <c r="B684" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="685" customHeight="1" spans="1:2">
+      <c r="A685" s="1">
+        <v>681</v>
+      </c>
+      <c r="B685" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="686" customHeight="1" spans="1:2">
+      <c r="A686" s="1">
+        <v>682</v>
+      </c>
+      <c r="B686" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="687" customHeight="1" spans="1:2">
+      <c r="A687" s="1">
+        <v>683</v>
+      </c>
+      <c r="B687" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="688" customHeight="1" spans="1:2">
+      <c r="A688" s="1">
+        <v>684</v>
+      </c>
+      <c r="B688" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="689" customHeight="1" spans="1:2">
+      <c r="A689" s="1">
+        <v>685</v>
+      </c>
+      <c r="B689" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="690" customHeight="1" spans="1:2">
+      <c r="A690" s="1">
+        <v>686</v>
+      </c>
+      <c r="B690" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="691" customHeight="1" spans="1:2">
+      <c r="A691" s="1">
+        <v>687</v>
+      </c>
+      <c r="B691" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="692" customHeight="1" spans="1:2">
+      <c r="A692" s="1">
+        <v>688</v>
+      </c>
+      <c r="B692" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="693" customHeight="1" spans="1:2">
+      <c r="A693" s="1">
+        <v>689</v>
+      </c>
+      <c r="B693" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="694" customHeight="1" spans="1:2">
+      <c r="A694" s="1">
+        <v>690</v>
+      </c>
+      <c r="B694" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="695" customHeight="1" spans="1:2">
+      <c r="A695" s="1">
+        <v>691</v>
+      </c>
+      <c r="B695" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="696" customHeight="1" spans="1:2">
+      <c r="A696" s="1">
+        <v>692</v>
+      </c>
+      <c r="B696" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="697" customHeight="1" spans="1:2">
+      <c r="A697" s="1">
+        <v>693</v>
+      </c>
+      <c r="B697" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="698" customHeight="1" spans="1:2">
+      <c r="A698" s="1">
+        <v>694</v>
+      </c>
+      <c r="B698" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="699" customHeight="1" spans="1:2">
+      <c r="A699" s="1">
+        <v>695</v>
+      </c>
+      <c r="B699" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="700" customHeight="1" spans="1:2">
+      <c r="A700" s="1">
+        <v>696</v>
+      </c>
+      <c r="B700" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="701" customHeight="1" spans="1:2">
+      <c r="A701" s="1">
+        <v>697</v>
+      </c>
+      <c r="B701" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="702" customHeight="1" spans="1:2">
+      <c r="A702" s="1">
+        <v>698</v>
+      </c>
+      <c r="B702" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="703" customHeight="1" spans="1:2">
+      <c r="A703" s="1">
+        <v>699</v>
+      </c>
+      <c r="B703" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="704" customHeight="1" spans="1:2">
+      <c r="A704" s="1">
+        <v>700</v>
+      </c>
+      <c r="B704" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="705" customHeight="1" spans="1:2">
+      <c r="A705" s="1">
+        <v>701</v>
+      </c>
+      <c r="B705" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="706" customHeight="1" spans="1:2">
+      <c r="A706" s="1">
+        <v>702</v>
+      </c>
+      <c r="B706" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="707" customHeight="1" spans="1:2">
+      <c r="A707" s="1">
+        <v>703</v>
+      </c>
+      <c r="B707" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="708" customHeight="1" spans="1:2">
+      <c r="A708" s="1">
+        <v>704</v>
+      </c>
+      <c r="B708" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="709" customHeight="1" spans="1:2">
+      <c r="A709" s="1">
+        <v>705</v>
+      </c>
+      <c r="B709" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="710" customHeight="1" spans="1:2">
+      <c r="A710" s="1">
+        <v>706</v>
+      </c>
+      <c r="B710" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="711" customHeight="1" spans="1:2">
+      <c r="A711" s="1">
+        <v>707</v>
+      </c>
+      <c r="B711" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="712" customHeight="1" spans="1:2">
+      <c r="A712" s="1">
+        <v>708</v>
+      </c>
+      <c r="B712" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="713" customHeight="1" spans="1:2">
+      <c r="A713" s="1">
+        <v>709</v>
+      </c>
+      <c r="B713" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="714" customHeight="1" spans="1:2">
+      <c r="A714" s="1">
+        <v>710</v>
+      </c>
+      <c r="B714" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="715" customHeight="1" spans="1:2">
+      <c r="A715" s="1">
+        <v>711</v>
+      </c>
+      <c r="B715" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="716" customHeight="1" spans="1:2">
+      <c r="A716" s="1">
+        <v>712</v>
+      </c>
+      <c r="B716" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="717" customHeight="1" spans="1:2">
+      <c r="A717" s="1">
+        <v>713</v>
+      </c>
+      <c r="B717" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="718" customHeight="1" spans="1:2">
+      <c r="A718" s="1">
+        <v>714</v>
+      </c>
+      <c r="B718" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="719" customHeight="1" spans="1:2">
+      <c r="A719" s="1">
+        <v>715</v>
+      </c>
+      <c r="B719" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="720" customHeight="1" spans="1:2">
+      <c r="A720" s="1">
+        <v>716</v>
+      </c>
+      <c r="B720" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="721" customHeight="1" spans="1:2">
+      <c r="A721" s="1">
+        <v>717</v>
+      </c>
+      <c r="B721" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="722" customHeight="1" spans="1:2">
+      <c r="A722" s="1">
+        <v>718</v>
+      </c>
+      <c r="B722" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="723" customHeight="1" spans="1:2">
+      <c r="A723" s="1">
+        <v>719</v>
+      </c>
+      <c r="B723" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="724" customHeight="1" spans="1:2">
+      <c r="A724" s="1">
+        <v>720</v>
+      </c>
+      <c r="B724" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="725" customHeight="1" spans="1:2">
+      <c r="A725" s="1">
+        <v>721</v>
+      </c>
+      <c r="B725" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="726" customHeight="1" spans="1:2">
+      <c r="A726" s="1">
+        <v>722</v>
+      </c>
+      <c r="B726" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="727" customHeight="1" spans="1:2">
+      <c r="A727" s="1">
+        <v>723</v>
+      </c>
+      <c r="B727" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="728" customHeight="1" spans="1:2">
+      <c r="A728" s="1">
+        <v>724</v>
+      </c>
+      <c r="B728" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="729" customHeight="1" spans="1:2">
+      <c r="A729" s="1">
+        <v>725</v>
+      </c>
+      <c r="B729" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="730" customHeight="1" spans="1:2">
+      <c r="A730" s="1">
+        <v>726</v>
+      </c>
+      <c r="B730" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="731" customHeight="1" spans="1:2">
+      <c r="A731" s="1">
+        <v>727</v>
+      </c>
+      <c r="B731" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="732" customHeight="1" spans="1:2">
+      <c r="A732" s="1">
+        <v>728</v>
+      </c>
+      <c r="B732" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="733" customHeight="1" spans="1:2">
+      <c r="A733" s="1">
+        <v>729</v>
+      </c>
+      <c r="B733" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="734" customHeight="1" spans="1:2">
+      <c r="A734" s="1">
+        <v>730</v>
+      </c>
+      <c r="B734" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="735" customHeight="1" spans="1:2">
+      <c r="A735" s="1">
+        <v>731</v>
+      </c>
+      <c r="B735" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="736" customHeight="1" spans="1:2">
+      <c r="A736" s="1">
+        <v>732</v>
+      </c>
+      <c r="B736" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="737" customHeight="1" spans="1:2">
+      <c r="A737" s="1">
+        <v>733</v>
+      </c>
+      <c r="B737" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="738" customHeight="1" spans="1:2">
+      <c r="A738" s="1">
+        <v>734</v>
+      </c>
+      <c r="B738" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="739" customHeight="1" spans="1:2">
+      <c r="A739" s="1">
+        <v>735</v>
+      </c>
+      <c r="B739" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="740" customHeight="1" spans="1:2">
+      <c r="A740" s="1">
+        <v>736</v>
+      </c>
+      <c r="B740" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="741" customHeight="1" spans="1:2">
+      <c r="A741" s="1">
+        <v>737</v>
+      </c>
+      <c r="B741" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="742" customHeight="1" spans="1:2">
+      <c r="A742" s="1">
+        <v>738</v>
+      </c>
+      <c r="B742" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="743" customHeight="1" spans="1:2">
+      <c r="A743" s="1">
+        <v>739</v>
+      </c>
+      <c r="B743" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="744" customHeight="1" spans="1:2">
+      <c r="A744" s="1">
+        <v>740</v>
+      </c>
+      <c r="B744" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="745" customHeight="1" spans="1:2">
+      <c r="A745" s="1">
+        <v>741</v>
+      </c>
+      <c r="B745" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="746" customHeight="1" spans="1:2">
+      <c r="A746" s="1">
+        <v>742</v>
+      </c>
+      <c r="B746" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="747" customHeight="1" spans="1:2">
+      <c r="A747" s="1">
+        <v>743</v>
+      </c>
+      <c r="B747" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="748" customHeight="1" spans="1:2">
+      <c r="A748" s="1">
+        <v>744</v>
+      </c>
+      <c r="B748" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="749" customHeight="1" spans="1:2">
+      <c r="A749" s="1">
+        <v>745</v>
+      </c>
+      <c r="B749" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="750" customHeight="1" spans="1:2">
+      <c r="A750" s="1">
+        <v>746</v>
+      </c>
+      <c r="B750" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="751" customHeight="1" spans="1:2">
+      <c r="A751" s="1">
+        <v>747</v>
+      </c>
+      <c r="B751" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="752" customHeight="1" spans="1:2">
+      <c r="A752" s="1">
+        <v>748</v>
+      </c>
+      <c r="B752" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="753" customHeight="1" spans="1:2">
+      <c r="A753" s="1">
+        <v>749</v>
+      </c>
+      <c r="B753" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="754" customHeight="1" spans="1:2">
+      <c r="A754" s="1">
+        <v>750</v>
+      </c>
+      <c r="B754" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="755" customHeight="1" spans="1:2">
+      <c r="A755" s="1">
+        <v>751</v>
+      </c>
+      <c r="B755" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="756" customHeight="1" spans="1:2">
+      <c r="A756" s="1">
+        <v>752</v>
+      </c>
+      <c r="B756" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="757" customHeight="1" spans="1:2">
+      <c r="A757" s="1">
+        <v>753</v>
+      </c>
+      <c r="B757" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="758" customHeight="1" spans="1:2">
+      <c r="A758" s="1">
+        <v>754</v>
+      </c>
+      <c r="B758" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="759" customHeight="1" spans="1:2">
+      <c r="A759" s="1">
+        <v>755</v>
+      </c>
+      <c r="B759" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="760" customHeight="1" spans="1:2">
+      <c r="A760" s="1">
+        <v>756</v>
+      </c>
+      <c r="B760" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="761" customHeight="1" spans="1:2">
+      <c r="A761" s="1">
+        <v>757</v>
+      </c>
+      <c r="B761" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="762" customHeight="1" spans="1:2">
+      <c r="A762" s="1">
+        <v>758</v>
+      </c>
+      <c r="B762" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="763" customHeight="1" spans="1:2">
+      <c r="A763" s="1">
+        <v>759</v>
+      </c>
+      <c r="B763" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="764" customHeight="1" spans="1:2">
+      <c r="A764" s="1">
+        <v>760</v>
+      </c>
+      <c r="B764" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="765" customHeight="1" spans="1:2">
+      <c r="A765" s="1">
+        <v>761</v>
+      </c>
+      <c r="B765" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="766" customHeight="1" spans="1:2">
+      <c r="A766" s="1">
+        <v>762</v>
+      </c>
+      <c r="B766" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="767" customHeight="1" spans="1:2">
+      <c r="A767" s="1">
+        <v>763</v>
+      </c>
+      <c r="B767" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="768" customHeight="1" spans="1:2">
+      <c r="A768" s="1">
+        <v>764</v>
+      </c>
+      <c r="B768" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="769" customHeight="1" spans="1:2">
+      <c r="A769" s="1">
+        <v>765</v>
+      </c>
+      <c r="B769" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="770" customHeight="1" spans="1:2">
+      <c r="A770" s="1">
+        <v>766</v>
+      </c>
+      <c r="B770" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="771" customHeight="1" spans="1:2">
+      <c r="A771" s="1">
+        <v>767</v>
+      </c>
+      <c r="B771" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="772" customHeight="1" spans="1:2">
+      <c r="A772" s="1">
+        <v>768</v>
+      </c>
+      <c r="B772" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="773" customHeight="1" spans="1:2">
+      <c r="A773" s="1">
+        <v>769</v>
+      </c>
+      <c r="B773" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="774" customHeight="1" spans="1:2">
+      <c r="A774" s="1">
+        <v>770</v>
+      </c>
+      <c r="B774" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="775" customHeight="1" spans="1:2">
+      <c r="A775" s="1">
+        <v>771</v>
+      </c>
+      <c r="B775" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="776" customHeight="1" spans="1:2">
+      <c r="A776" s="1">
+        <v>772</v>
+      </c>
+      <c r="B776" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="777" customHeight="1" spans="1:2">
+      <c r="A777" s="1">
+        <v>773</v>
+      </c>
+      <c r="B777" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="778" customHeight="1" spans="1:2">
+      <c r="A778" s="1">
+        <v>774</v>
+      </c>
+      <c r="B778" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="779" customHeight="1" spans="1:2">
+      <c r="A779" s="1">
+        <v>775</v>
+      </c>
+      <c r="B779" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="780" customHeight="1" spans="1:2">
+      <c r="A780" s="1">
+        <v>776</v>
+      </c>
+      <c r="B780" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="781" customHeight="1" spans="1:2">
+      <c r="A781" s="1">
+        <v>777</v>
+      </c>
+      <c r="B781" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="782" customHeight="1" spans="1:2">
+      <c r="A782" s="1">
+        <v>778</v>
+      </c>
+      <c r="B782" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="783" customHeight="1" spans="1:2">
+      <c r="A783" s="1">
+        <v>779</v>
+      </c>
+      <c r="B783" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="784" customHeight="1" spans="1:2">
+      <c r="A784" s="1">
+        <v>780</v>
+      </c>
+      <c r="B784" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="785" customHeight="1" spans="1:2">
+      <c r="A785" s="1">
+        <v>781</v>
+      </c>
+      <c r="B785" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="786" customHeight="1" spans="1:2">
+      <c r="A786" s="1">
+        <v>782</v>
+      </c>
+      <c r="B786" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="787" customHeight="1" spans="1:2">
+      <c r="A787" s="1">
+        <v>783</v>
+      </c>
+      <c r="B787" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="788" customHeight="1" spans="1:2">
+      <c r="A788" s="1">
+        <v>784</v>
+      </c>
+      <c r="B788" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="789" customHeight="1" spans="1:2">
+      <c r="A789" s="1">
+        <v>785</v>
+      </c>
+      <c r="B789" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="790" customHeight="1" spans="1:2">
+      <c r="A790" s="1">
+        <v>786</v>
+      </c>
+      <c r="B790" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="791" customHeight="1" spans="1:2">
+      <c r="A791" s="1">
+        <v>787</v>
+      </c>
+      <c r="B791" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="792" customHeight="1" spans="1:2">
+      <c r="A792" s="1">
+        <v>788</v>
+      </c>
+      <c r="B792" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="793" customHeight="1" spans="1:2">
+      <c r="A793" s="1">
+        <v>789</v>
+      </c>
+      <c r="B793" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="794" customHeight="1" spans="1:2">
+      <c r="A794" s="1">
+        <v>790</v>
+      </c>
+      <c r="B794" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="795" customHeight="1" spans="1:2">
+      <c r="A795" s="1">
+        <v>791</v>
+      </c>
+      <c r="B795" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="796" customHeight="1" spans="1:2">
+      <c r="A796" s="1">
+        <v>792</v>
+      </c>
+      <c r="B796" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="797" customHeight="1" spans="1:2">
+      <c r="A797" s="1">
+        <v>793</v>
+      </c>
+      <c r="B797" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="798" customHeight="1" spans="1:2">
+      <c r="A798" s="1">
+        <v>794</v>
+      </c>
+      <c r="B798" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="799" customHeight="1" spans="1:2">
+      <c r="A799" s="1">
+        <v>795</v>
+      </c>
+      <c r="B799" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="800" customHeight="1" spans="1:2">
+      <c r="A800" s="1">
+        <v>796</v>
+      </c>
+      <c r="B800" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="801" customHeight="1" spans="1:2">
+      <c r="A801" s="1">
+        <v>797</v>
+      </c>
+      <c r="B801" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="802" customHeight="1" spans="1:2">
+      <c r="A802" s="1">
+        <v>798</v>
+      </c>
+      <c r="B802" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="803" customHeight="1" spans="1:2">
+      <c r="A803" s="1">
+        <v>799</v>
+      </c>
+      <c r="B803" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="804" customHeight="1" spans="1:2">
+      <c r="A804" s="1">
+        <v>800</v>
+      </c>
+      <c r="B804" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="805" customHeight="1" spans="1:2">
+      <c r="A805" s="1">
+        <v>801</v>
+      </c>
+      <c r="B805" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="806" customHeight="1" spans="1:2">
+      <c r="A806" s="1">
+        <v>802</v>
+      </c>
+      <c r="B806" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="807" customHeight="1" spans="1:2">
+      <c r="A807" s="1">
+        <v>803</v>
+      </c>
+      <c r="B807" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="808" customHeight="1" spans="1:2">
+      <c r="A808" s="1">
+        <v>804</v>
+      </c>
+      <c r="B808" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="809" customHeight="1" spans="1:2">
+      <c r="A809" s="1">
+        <v>805</v>
+      </c>
+      <c r="B809" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="810" customHeight="1" spans="1:2">
+      <c r="A810" s="1">
+        <v>806</v>
+      </c>
+      <c r="B810" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="811" customHeight="1" spans="1:2">
+      <c r="A811" s="1">
+        <v>807</v>
+      </c>
+      <c r="B811" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="812" customHeight="1" spans="1:2">
+      <c r="A812" s="1">
+        <v>808</v>
+      </c>
+      <c r="B812" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="813" customHeight="1" spans="1:2">
+      <c r="A813" s="1">
+        <v>809</v>
+      </c>
+      <c r="B813" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="814" customHeight="1" spans="1:2">
+      <c r="A814" s="1">
+        <v>810</v>
+      </c>
+      <c r="B814" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="815" customHeight="1" spans="1:2">
+      <c r="A815" s="1">
+        <v>811</v>
+      </c>
+      <c r="B815" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="816" customHeight="1" spans="1:2">
+      <c r="A816" s="1">
+        <v>812</v>
+      </c>
+      <c r="B816" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="817" customHeight="1" spans="1:2">
+      <c r="A817" s="1">
+        <v>813</v>
+      </c>
+      <c r="B817" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="818" customHeight="1" spans="1:2">
+      <c r="A818" s="1">
+        <v>814</v>
+      </c>
+      <c r="B818" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="819" customHeight="1" spans="1:2">
+      <c r="A819" s="1">
+        <v>815</v>
+      </c>
+      <c r="B819" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="820" customHeight="1" spans="1:2">
+      <c r="A820" s="1">
+        <v>816</v>
+      </c>
+      <c r="B820" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="821" customHeight="1" spans="1:2">
+      <c r="A821" s="1">
+        <v>817</v>
+      </c>
+      <c r="B821" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="822" customHeight="1" spans="1:2">
+      <c r="A822" s="1">
+        <v>818</v>
+      </c>
+      <c r="B822" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="823" customHeight="1" spans="1:2">
+      <c r="A823" s="1">
+        <v>819</v>
+      </c>
+      <c r="B823" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="824" customHeight="1" spans="1:2">
+      <c r="A824" s="1">
+        <v>820</v>
+      </c>
+      <c r="B824" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="825" customHeight="1" spans="1:2">
+      <c r="A825" s="1">
+        <v>821</v>
+      </c>
+      <c r="B825" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="826" customHeight="1" spans="1:2">
+      <c r="A826" s="1">
+        <v>822</v>
+      </c>
+      <c r="B826" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="827" customHeight="1" spans="1:2">
+      <c r="A827" s="1">
+        <v>823</v>
+      </c>
+      <c r="B827" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="828" customHeight="1" spans="1:2">
+      <c r="A828" s="1">
+        <v>824</v>
+      </c>
+      <c r="B828" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="829" customHeight="1" spans="1:2">
+      <c r="A829" s="1">
+        <v>825</v>
+      </c>
+      <c r="B829" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="830" customHeight="1" spans="1:2">
+      <c r="A830" s="1">
+        <v>826</v>
+      </c>
+      <c r="B830" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="831" customHeight="1" spans="1:2">
+      <c r="A831" s="1">
+        <v>827</v>
+      </c>
+      <c r="B831" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="832" customHeight="1" spans="1:2">
+      <c r="A832" s="1">
+        <v>828</v>
+      </c>
+      <c r="B832" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="833" customHeight="1" spans="1:2">
+      <c r="A833" s="1">
+        <v>829</v>
+      </c>
+      <c r="B833" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="834" customHeight="1" spans="1:2">
+      <c r="A834" s="1">
+        <v>830</v>
+      </c>
+      <c r="B834" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="835" customHeight="1" spans="1:2">
+      <c r="A835" s="1">
+        <v>831</v>
+      </c>
+      <c r="B835" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="836" customHeight="1" spans="1:2">
+      <c r="A836" s="1">
+        <v>832</v>
+      </c>
+      <c r="B836" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="837" customHeight="1" spans="1:2">
+      <c r="A837" s="1">
+        <v>833</v>
+      </c>
+      <c r="B837" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="838" customHeight="1" spans="1:2">
+      <c r="A838" s="1">
+        <v>834</v>
+      </c>
+      <c r="B838" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="839" customHeight="1" spans="1:2">
+      <c r="A839" s="1">
+        <v>835</v>
+      </c>
+      <c r="B839" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="840" customHeight="1" spans="1:2">
+      <c r="A840" s="1">
+        <v>836</v>
+      </c>
+      <c r="B840" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="841" customHeight="1" spans="1:2">
+      <c r="A841" s="1">
+        <v>837</v>
+      </c>
+      <c r="B841" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="842" customHeight="1" spans="1:2">
+      <c r="A842" s="1">
+        <v>838</v>
+      </c>
+      <c r="B842" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="843" customHeight="1" spans="1:2">
+      <c r="A843" s="1">
+        <v>839</v>
+      </c>
+      <c r="B843" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="844" customHeight="1" spans="1:2">
+      <c r="A844" s="1">
+        <v>840</v>
+      </c>
+      <c r="B844" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="845" customHeight="1" spans="1:2">
+      <c r="A845" s="1">
+        <v>841</v>
+      </c>
+      <c r="B845" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="846" customHeight="1" spans="1:2">
+      <c r="A846" s="1">
+        <v>842</v>
+      </c>
+      <c r="B846" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="847" customHeight="1" spans="1:2">
+      <c r="A847" s="1">
+        <v>843</v>
+      </c>
+      <c r="B847" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="848" customHeight="1" spans="1:2">
+      <c r="A848" s="1">
+        <v>844</v>
+      </c>
+      <c r="B848" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="849" customHeight="1" spans="1:2">
+      <c r="A849" s="1">
+        <v>845</v>
+      </c>
+      <c r="B849" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="850" customHeight="1" spans="1:2">
+      <c r="A850" s="1">
+        <v>846</v>
+      </c>
+      <c r="B850" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="851" customHeight="1" spans="1:2">
+      <c r="A851" s="1">
+        <v>847</v>
+      </c>
+      <c r="B851" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="852" customHeight="1" spans="1:2">
+      <c r="A852" s="1">
+        <v>848</v>
+      </c>
+      <c r="B852" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="853" customHeight="1" spans="1:2">
+      <c r="A853" s="1">
+        <v>849</v>
+      </c>
+      <c r="B853" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="854" customHeight="1" spans="1:2">
+      <c r="A854" s="1">
+        <v>850</v>
+      </c>
+      <c r="B854" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="855" customHeight="1" spans="1:2">
+      <c r="A855" s="1">
+        <v>851</v>
+      </c>
+      <c r="B855" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="856" customHeight="1" spans="1:2">
+      <c r="A856" s="1">
+        <v>852</v>
+      </c>
+      <c r="B856" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="857" customHeight="1" spans="1:2">
+      <c r="A857" s="1">
+        <v>853</v>
+      </c>
+      <c r="B857" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="858" customHeight="1" spans="1:2">
+      <c r="A858" s="1">
+        <v>854</v>
+      </c>
+      <c r="B858" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="859" customHeight="1" spans="1:2">
+      <c r="A859" s="1">
+        <v>855</v>
+      </c>
+      <c r="B859" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="860" customHeight="1" spans="1:2">
+      <c r="A860" s="1">
+        <v>856</v>
+      </c>
+      <c r="B860" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="861" customHeight="1" spans="1:2">
+      <c r="A861" s="1">
+        <v>857</v>
+      </c>
+      <c r="B861" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="862" customHeight="1" spans="1:2">
+      <c r="A862" s="1">
+        <v>858</v>
+      </c>
+      <c r="B862" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="863" customHeight="1" spans="1:2">
+      <c r="A863" s="1">
+        <v>859</v>
+      </c>
+      <c r="B863" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="864" customHeight="1" spans="1:2">
+      <c r="A864" s="1">
+        <v>860</v>
+      </c>
+      <c r="B864" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="865" customHeight="1" spans="1:2">
+      <c r="A865" s="1">
+        <v>861</v>
+      </c>
+      <c r="B865" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="866" customHeight="1" spans="1:2">
+      <c r="A866" s="1">
+        <v>862</v>
+      </c>
+      <c r="B866" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="867" customHeight="1" spans="1:2">
+      <c r="A867" s="1">
+        <v>863</v>
+      </c>
+      <c r="B867" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="868" customHeight="1" spans="1:2">
+      <c r="A868" s="1">
+        <v>864</v>
+      </c>
+      <c r="B868" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="869" customHeight="1" spans="1:2">
+      <c r="A869" s="1">
+        <v>865</v>
+      </c>
+      <c r="B869" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="870" customHeight="1" spans="1:2">
+      <c r="A870" s="1">
+        <v>866</v>
+      </c>
+      <c r="B870" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="871" customHeight="1" spans="1:2">
+      <c r="A871" s="1">
+        <v>867</v>
+      </c>
+      <c r="B871" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="872" customHeight="1" spans="1:2">
+      <c r="A872" s="1">
+        <v>868</v>
+      </c>
+      <c r="B872" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="873" customHeight="1" spans="1:2">
+      <c r="A873" s="1">
+        <v>869</v>
+      </c>
+      <c r="B873" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="874" customHeight="1" spans="1:2">
+      <c r="A874" s="1">
+        <v>870</v>
+      </c>
+      <c r="B874" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="875" customHeight="1" spans="1:2">
+      <c r="A875" s="1">
+        <v>871</v>
+      </c>
+      <c r="B875" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="876" customHeight="1" spans="1:2">
+      <c r="A876" s="1">
+        <v>872</v>
+      </c>
+      <c r="B876" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="877" customHeight="1" spans="1:2">
+      <c r="A877" s="1">
+        <v>873</v>
+      </c>
+      <c r="B877" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="878" customHeight="1" spans="1:2">
+      <c r="A878" s="1">
+        <v>874</v>
+      </c>
+      <c r="B878" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="879" customHeight="1" spans="1:2">
+      <c r="A879" s="1">
+        <v>875</v>
+      </c>
+      <c r="B879" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="880" customHeight="1" spans="1:2">
+      <c r="A880" s="1">
+        <v>876</v>
+      </c>
+      <c r="B880" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="881" customHeight="1" spans="1:2">
+      <c r="A881" s="1">
+        <v>877</v>
+      </c>
+      <c r="B881" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="882" customHeight="1" spans="1:2">
+      <c r="A882" s="1">
+        <v>878</v>
+      </c>
+      <c r="B882" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="883" customHeight="1" spans="1:2">
+      <c r="A883" s="1">
+        <v>879</v>
+      </c>
+      <c r="B883" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="884" customHeight="1" spans="1:2">
+      <c r="A884" s="1">
+        <v>880</v>
+      </c>
+      <c r="B884" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="885" customHeight="1" spans="1:2">
+      <c r="A885" s="1">
+        <v>881</v>
+      </c>
+      <c r="B885" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="886" customHeight="1" spans="1:2">
+      <c r="A886" s="1">
+        <v>882</v>
+      </c>
+      <c r="B886" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="887" customHeight="1" spans="1:2">
+      <c r="A887" s="1">
+        <v>883</v>
+      </c>
+      <c r="B887" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="888" customHeight="1" spans="1:2">
+      <c r="A888" s="1">
+        <v>884</v>
+      </c>
+      <c r="B888" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="889" customHeight="1" spans="1:2">
+      <c r="A889" s="1">
+        <v>885</v>
+      </c>
+      <c r="B889" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="890" customHeight="1" spans="1:2">
+      <c r="A890" s="1">
+        <v>886</v>
+      </c>
+      <c r="B890" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="891" customHeight="1" spans="1:2">
+      <c r="A891" s="1">
+        <v>887</v>
+      </c>
+      <c r="B891" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="892" customHeight="1" spans="1:2">
+      <c r="A892" s="1">
+        <v>888</v>
+      </c>
+      <c r="B892" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="893" customHeight="1" spans="1:2">
+      <c r="A893" s="1">
+        <v>889</v>
+      </c>
+      <c r="B893" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="894" customHeight="1" spans="1:2">
+      <c r="A894" s="1">
+        <v>890</v>
+      </c>
+      <c r="B894" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="895" customHeight="1" spans="1:2">
+      <c r="A895" s="1">
+        <v>891</v>
+      </c>
+      <c r="B895" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="896" customHeight="1" spans="1:2">
+      <c r="A896" s="1">
+        <v>892</v>
+      </c>
+      <c r="B896" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="897" customHeight="1" spans="1:2">
+      <c r="A897" s="1">
+        <v>893</v>
+      </c>
+      <c r="B897" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="898" customHeight="1" spans="1:2">
+      <c r="A898" s="1">
+        <v>894</v>
+      </c>
+      <c r="B898" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="899" customHeight="1" spans="1:2">
+      <c r="A899" s="1">
+        <v>895</v>
+      </c>
+      <c r="B899" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="900" customHeight="1" spans="1:2">
+      <c r="A900" s="1">
+        <v>896</v>
+      </c>
+      <c r="B900" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="901" customHeight="1" spans="1:2">
+      <c r="A901" s="1">
+        <v>897</v>
+      </c>
+      <c r="B901" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="902" customHeight="1" spans="1:2">
+      <c r="A902" s="1">
+        <v>898</v>
+      </c>
+      <c r="B902" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="903" customHeight="1" spans="1:2">
+      <c r="A903" s="1">
+        <v>899</v>
+      </c>
+      <c r="B903" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="904" customHeight="1" spans="1:2">
+      <c r="A904" s="1">
+        <v>900</v>
+      </c>
+      <c r="B904" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="905" customHeight="1" spans="1:2">
+      <c r="A905" s="1">
+        <v>901</v>
+      </c>
+      <c r="B905" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="906" customHeight="1" spans="1:2">
+      <c r="A906" s="1">
+        <v>902</v>
+      </c>
+      <c r="B906" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="907" customHeight="1" spans="1:2">
+      <c r="A907" s="1">
+        <v>903</v>
+      </c>
+      <c r="B907" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="908" customHeight="1" spans="1:2">
+      <c r="A908" s="1">
+        <v>904</v>
+      </c>
+      <c r="B908" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="909" customHeight="1" spans="1:2">
+      <c r="A909" s="1">
+        <v>905</v>
+      </c>
+      <c r="B909" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="910" customHeight="1" spans="1:2">
+      <c r="A910" s="1">
+        <v>906</v>
+      </c>
+      <c r="B910" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="911" customHeight="1" spans="1:2">
+      <c r="A911" s="1">
+        <v>907</v>
+      </c>
+      <c r="B911" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="912" customHeight="1" spans="1:2">
+      <c r="A912" s="1">
+        <v>908</v>
+      </c>
+      <c r="B912" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="913" customHeight="1" spans="1:2">
+      <c r="A913" s="1">
+        <v>909</v>
+      </c>
+      <c r="B913" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="914" customHeight="1" spans="1:2">
+      <c r="A914" s="1">
+        <v>910</v>
+      </c>
+      <c r="B914" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="915" customHeight="1" spans="1:2">
+      <c r="A915" s="1">
+        <v>911</v>
+      </c>
+      <c r="B915" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="916" customHeight="1" spans="1:2">
+      <c r="A916" s="1">
+        <v>912</v>
+      </c>
+      <c r="B916" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="917" customHeight="1" spans="1:2">
+      <c r="A917" s="1">
+        <v>913</v>
+      </c>
+      <c r="B917" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="918" customHeight="1" spans="1:2">
+      <c r="A918" s="1">
+        <v>914</v>
+      </c>
+      <c r="B918" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="919" customHeight="1" spans="1:2">
+      <c r="A919" s="1">
+        <v>915</v>
+      </c>
+      <c r="B919" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="920" customHeight="1" spans="1:2">
+      <c r="A920" s="1">
+        <v>916</v>
+      </c>
+      <c r="B920" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="921" customHeight="1" spans="1:2">
+      <c r="A921" s="1">
+        <v>917</v>
+      </c>
+      <c r="B921" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="922" customHeight="1" spans="1:2">
+      <c r="A922" s="1">
+        <v>918</v>
+      </c>
+      <c r="B922" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="923" customHeight="1" spans="1:2">
+      <c r="A923" s="1">
+        <v>919</v>
+      </c>
+      <c r="B923" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="924" customHeight="1" spans="1:2">
+      <c r="A924" s="1">
+        <v>920</v>
+      </c>
+      <c r="B924" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="925" customHeight="1" spans="1:2">
+      <c r="A925" s="1">
+        <v>921</v>
+      </c>
+      <c r="B925" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="926" customHeight="1" spans="1:2">
+      <c r="A926" s="1">
+        <v>922</v>
+      </c>
+      <c r="B926" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="927" customHeight="1" spans="1:2">
+      <c r="A927" s="1">
+        <v>923</v>
+      </c>
+      <c r="B927" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="928" customHeight="1" spans="1:2">
+      <c r="A928" s="1">
+        <v>924</v>
+      </c>
+      <c r="B928" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="929" customHeight="1" spans="1:2">
+      <c r="A929" s="1">
+        <v>925</v>
+      </c>
+      <c r="B929" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="930" customHeight="1" spans="1:2">
+      <c r="A930" s="1">
+        <v>926</v>
+      </c>
+      <c r="B930" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="931" customHeight="1" spans="1:2">
+      <c r="A931" s="1">
+        <v>927</v>
+      </c>
+      <c r="B931" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="932" customHeight="1" spans="1:2">
+      <c r="A932" s="1">
+        <v>928</v>
+      </c>
+      <c r="B932" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="933" customHeight="1" spans="1:2">
+      <c r="A933" s="1">
+        <v>929</v>
+      </c>
+      <c r="B933" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="934" customHeight="1" spans="1:2">
+      <c r="A934" s="1">
+        <v>930</v>
+      </c>
+      <c r="B934" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="935" customHeight="1" spans="1:2">
+      <c r="A935" s="1">
+        <v>931</v>
+      </c>
+      <c r="B935" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="936" customHeight="1" spans="1:2">
+      <c r="A936" s="1">
+        <v>932</v>
+      </c>
+      <c r="B936" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="937" customHeight="1" spans="1:2">
+      <c r="A937" s="1">
+        <v>933</v>
+      </c>
+      <c r="B937" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="938" customHeight="1" spans="1:2">
+      <c r="A938" s="1">
+        <v>934</v>
+      </c>
+      <c r="B938" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="939" customHeight="1" spans="1:2">
+      <c r="A939" s="1">
+        <v>935</v>
+      </c>
+      <c r="B939" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="940" customHeight="1" spans="1:2">
+      <c r="A940" s="1">
+        <v>936</v>
+      </c>
+      <c r="B940" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="941" customHeight="1" spans="1:2">
+      <c r="A941" s="1">
+        <v>937</v>
+      </c>
+      <c r="B941" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="942" customHeight="1" spans="1:2">
+      <c r="A942" s="1">
+        <v>938</v>
+      </c>
+      <c r="B942" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="943" customHeight="1" spans="1:2">
+      <c r="A943" s="1">
+        <v>939</v>
+      </c>
+      <c r="B943" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="944" customHeight="1" spans="1:2">
+      <c r="A944" s="1">
+        <v>940</v>
+      </c>
+      <c r="B944" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="945" customHeight="1" spans="1:2">
+      <c r="A945" s="1">
+        <v>941</v>
+      </c>
+      <c r="B945" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="946" customHeight="1" spans="1:2">
+      <c r="A946" s="1">
+        <v>942</v>
+      </c>
+      <c r="B946" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="947" customHeight="1" spans="1:2">
+      <c r="A947" s="1">
+        <v>943</v>
+      </c>
+      <c r="B947" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="948" customHeight="1" spans="1:2">
+      <c r="A948" s="1">
+        <v>944</v>
+      </c>
+      <c r="B948" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="949" customHeight="1" spans="1:2">
+      <c r="A949" s="1">
+        <v>945</v>
+      </c>
+      <c r="B949" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="950" customHeight="1" spans="1:2">
+      <c r="A950" s="1">
+        <v>946</v>
+      </c>
+      <c r="B950" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="951" customHeight="1" spans="1:2">
+      <c r="A951" s="1">
+        <v>947</v>
+      </c>
+      <c r="B951" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="952" customHeight="1" spans="1:2">
+      <c r="A952" s="1">
+        <v>948</v>
+      </c>
+      <c r="B952" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="953" customHeight="1" spans="1:2">
+      <c r="A953" s="1">
+        <v>949</v>
+      </c>
+      <c r="B953" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="954" customHeight="1" spans="1:2">
+      <c r="A954" s="1">
+        <v>950</v>
+      </c>
+      <c r="B954" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="955" customHeight="1" spans="1:2">
+      <c r="A955" s="1">
+        <v>951</v>
+      </c>
+      <c r="B955" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="956" customHeight="1" spans="1:2">
+      <c r="A956" s="1">
+        <v>952</v>
+      </c>
+      <c r="B956" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="957" customHeight="1" spans="1:2">
+      <c r="A957" s="1">
+        <v>953</v>
+      </c>
+      <c r="B957" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="958" customHeight="1" spans="1:2">
+      <c r="A958" s="1">
+        <v>954</v>
+      </c>
+      <c r="B958" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="959" customHeight="1" spans="1:2">
+      <c r="A959" s="1">
+        <v>955</v>
+      </c>
+      <c r="B959" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="960" customHeight="1" spans="1:2">
+      <c r="A960" s="1">
+        <v>956</v>
+      </c>
+      <c r="B960" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="961" customHeight="1" spans="1:2">
+      <c r="A961" s="1">
+        <v>957</v>
+      </c>
+      <c r="B961" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="962" customHeight="1" spans="1:2">
+      <c r="A962" s="1">
+        <v>958</v>
+      </c>
+      <c r="B962" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="963" customHeight="1" spans="1:2">
+      <c r="A963" s="1">
+        <v>959</v>
+      </c>
+      <c r="B963" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="964" customHeight="1" spans="1:2">
+      <c r="A964" s="1">
+        <v>960</v>
+      </c>
+      <c r="B964" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="965" customHeight="1" spans="1:2">
+      <c r="A965" s="1">
+        <v>961</v>
+      </c>
+      <c r="B965" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="966" customHeight="1" spans="1:2">
+      <c r="A966" s="1">
+        <v>962</v>
+      </c>
+      <c r="B966" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="967" customHeight="1" spans="1:2">
+      <c r="A967" s="1">
+        <v>963</v>
+      </c>
+      <c r="B967" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="968" customHeight="1" spans="1:2">
+      <c r="A968" s="1">
+        <v>964</v>
+      </c>
+      <c r="B968" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="969" customHeight="1" spans="1:2">
+      <c r="A969" s="1">
+        <v>965</v>
+      </c>
+      <c r="B969" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="970" customHeight="1" spans="1:2">
+      <c r="A970" s="1">
+        <v>966</v>
+      </c>
+      <c r="B970" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="971" customHeight="1" spans="1:2">
+      <c r="A971" s="1">
+        <v>967</v>
+      </c>
+      <c r="B971" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="972" customHeight="1" spans="1:2">
+      <c r="A972" s="1">
+        <v>968</v>
+      </c>
+      <c r="B972" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="973" customHeight="1" spans="1:2">
+      <c r="A973" s="1">
+        <v>969</v>
+      </c>
+      <c r="B973" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="974" customHeight="1" spans="1:2">
+      <c r="A974" s="1">
+        <v>970</v>
+      </c>
+      <c r="B974" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="975" customHeight="1" spans="1:2">
+      <c r="A975" s="1">
+        <v>971</v>
+      </c>
+      <c r="B975" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="976" customHeight="1" spans="1:2">
+      <c r="A976" s="1">
+        <v>972</v>
+      </c>
+      <c r="B976" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="977" customHeight="1" spans="1:2">
+      <c r="A977" s="1">
+        <v>973</v>
+      </c>
+      <c r="B977" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="978" customHeight="1" spans="1:2">
+      <c r="A978" s="1">
+        <v>974</v>
+      </c>
+      <c r="B978" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="979" customHeight="1" spans="1:2">
+      <c r="A979" s="1">
+        <v>975</v>
+      </c>
+      <c r="B979" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="980" customHeight="1" spans="1:2">
+      <c r="A980" s="1">
+        <v>976</v>
+      </c>
+      <c r="B980" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="981" customHeight="1" spans="1:2">
+      <c r="A981" s="1">
+        <v>977</v>
+      </c>
+      <c r="B981" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="982" customHeight="1" spans="1:2">
+      <c r="A982" s="1">
+        <v>978</v>
+      </c>
+      <c r="B982" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="983" customHeight="1" spans="1:2">
+      <c r="A983" s="1">
+        <v>979</v>
+      </c>
+      <c r="B983" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="984" customHeight="1" spans="1:2">
+      <c r="A984" s="1">
+        <v>980</v>
+      </c>
+      <c r="B984" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="985" customHeight="1" spans="1:2">
+      <c r="A985" s="1">
+        <v>981</v>
+      </c>
+      <c r="B985" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="986" customHeight="1" spans="1:2">
+      <c r="A986" s="1">
+        <v>982</v>
+      </c>
+      <c r="B986" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="987" customHeight="1" spans="1:2">
+      <c r="A987" s="1">
+        <v>983</v>
+      </c>
+      <c r="B987" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="988" customHeight="1" spans="1:2">
+      <c r="A988" s="1">
+        <v>984</v>
+      </c>
+      <c r="B988" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="989" customHeight="1" spans="1:2">
+      <c r="A989" s="1">
+        <v>985</v>
+      </c>
+      <c r="B989" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="990" customHeight="1" spans="1:2">
+      <c r="A990" s="1">
+        <v>986</v>
+      </c>
+      <c r="B990" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="991" customHeight="1" spans="1:2">
+      <c r="A991" s="1">
+        <v>987</v>
+      </c>
+      <c r="B991" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="992" customHeight="1" spans="1:2">
+      <c r="A992" s="1">
+        <v>988</v>
+      </c>
+      <c r="B992" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="993" customHeight="1" spans="1:2">
+      <c r="A993" s="1">
+        <v>989</v>
+      </c>
+      <c r="B993" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="994" customHeight="1" spans="1:2">
+      <c r="A994" s="1">
+        <v>990</v>
+      </c>
+      <c r="B994" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="995" customHeight="1" spans="1:2">
+      <c r="A995" s="1">
+        <v>991</v>
+      </c>
+      <c r="B995" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="996" customHeight="1" spans="1:2">
+      <c r="A996" s="1">
+        <v>992</v>
+      </c>
+      <c r="B996" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="997" customHeight="1" spans="1:2">
+      <c r="A997" s="1">
+        <v>993</v>
+      </c>
+      <c r="B997" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="998" customHeight="1" spans="1:2">
+      <c r="A998" s="1">
+        <v>994</v>
+      </c>
+      <c r="B998" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="999" customHeight="1" spans="1:2">
+      <c r="A999" s="1">
+        <v>995</v>
+      </c>
+      <c r="B999" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="1000" customHeight="1" spans="1:2">
+      <c r="A1000" s="1">
+        <v>996</v>
+      </c>
+      <c r="B1000" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="1001" customHeight="1" spans="1:2">
+      <c r="A1001" s="1">
+        <v>997</v>
+      </c>
+      <c r="B1001" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="1002" customHeight="1" spans="1:2">
+      <c r="A1002" s="1">
+        <v>998</v>
+      </c>
+      <c r="B1002" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="1003" customHeight="1" spans="1:2">
+      <c r="A1003" s="1">
+        <v>999</v>
+      </c>
+      <c r="B1003" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
+    <row r="1004" customHeight="1" spans="1:2">
+      <c r="A1004" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B1004" s="1">
+        <v>2065024420</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B96" xr:uid="{3E666C3A-E333-454B-91DA-003542BD7183}">
-    <sortState ref="A2:B96">
+  <autoFilter ref="A1:B1004">
+    <sortState ref="A1:B1004">
       <sortCondition ref="A1:A96"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3774C9-F5EF-45BF-9505-262EF4E09842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>